--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -44,7 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:47 AM</t>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 19 August, 2025 9:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +293,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +305,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +713,136 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>170.58000000000001</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>25</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>26</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +856,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -83,7 +83,7 @@
     <t>76.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:52 AM</t>
+    <t>Tuesday, 19 August, 2025 9:57 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -65,25 +65,28 @@
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
-    <t>3:2</t>
+    <t>3:0</t>
   </si>
   <si>
     <t>126.00</t>
   </si>
   <si>
-    <t>41.5800</t>
+    <t>126.0000</t>
   </si>
   <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>152.00</t>
   </si>
   <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 19 August, 2025 9:57 AM</t>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 19 August, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -774,7 +777,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -790,7 +793,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -800,25 +803,25 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
       <c r="P10" s="13">
-        <v>170.58000000000001</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="13"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
       <c t="s" r="A11" s="14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -826,13 +829,13 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c t="s" r="G11" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
       <c t="s" r="K11" s="17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>106.00</t>
   </si>
   <si>
@@ -86,7 +98,19 @@
     <t>152.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:58 AM</t>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 19 August, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -760,7 +784,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -770,14 +794,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -814,38 +838,104 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>331</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>25</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>26</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>27</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>30</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>508</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +959,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -110,7 +110,7 @@
     <t>85.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:01 AM</t>
+    <t>Tuesday, 19 August, 2025 10:03 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>152.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
@@ -883,59 +892,92 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>508</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>532</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>37</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>38</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1011,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -74,12 +74,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -116,10 +125,19 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 19 August, 2025 10:03 AM</t>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 19 August, 2025 10:04 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -843,7 +861,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -859,7 +877,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -869,11 +887,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -885,14 +903,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -925,59 +943,125 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>532</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>29</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
         <v>36</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>37</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>809</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>42</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>43</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>44</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1016,10 +1100,20 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -137,7 +137,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:04 AM</t>
+    <t>Tuesday, 19 August, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -137,7 +149,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:05 AM</t>
+    <t>Tuesday, 19 August, 2025 10:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -811,7 +823,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -821,14 +833,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -844,7 +856,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -854,14 +866,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -877,7 +889,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -887,14 +899,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -903,14 +915,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -943,7 +955,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -953,11 +965,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -969,20 +981,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -993,7 +1005,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1009,59 +1021,92 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>809</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>42</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>43</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>44</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>840</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>47</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>48</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1110,10 +1155,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>72.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
   </si>
   <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
@@ -922,7 +931,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -955,7 +964,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -965,11 +974,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -981,14 +990,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1021,24 +1030,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1047,20 +1056,20 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1071,42 +1080,75 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>840</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>46</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>47</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>48</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c t="s" r="Q16" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>862</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1160,10 +1202,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -140,9 +155,6 @@
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -158,7 +170,7 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:19 AM</t>
+    <t>Tuesday, 19 August, 2025 10:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -865,24 +877,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -891,14 +903,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -915,7 +927,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -924,14 +936,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -941,14 +953,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -957,14 +969,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -974,11 +986,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -990,14 +1002,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1007,11 +1019,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1023,14 +1035,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1040,11 +1052,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1056,31 +1068,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1089,66 +1101,99 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>50</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>862</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>49</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
-        <v>50</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>874</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>54</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>55</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1252,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -143,15 +143,21 @@
     <t>152.0000</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -170,7 +176,19 @@
     <t>120.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:20 AM</t>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 19 August, 2025 10:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1075,7 +1093,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1085,11 +1103,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1101,31 +1119,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1134,66 +1152,132 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>52</v>
       </c>
-      <c t="s" r="Q17" s="12">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>874</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>53</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c t="s" r="Q18" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>55</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>56</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>924</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>59</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>60</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>61</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1257,10 +1341,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -188,7 +200,7 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:36 AM</t>
+    <t>Tuesday, 19 August, 2025 10:37 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -928,7 +940,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -938,14 +950,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -961,7 +973,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -971,14 +983,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -994,7 +1006,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1004,14 +1016,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1020,14 +1032,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1037,11 +1049,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1053,14 +1065,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1126,7 +1138,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1136,11 +1148,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1152,20 +1164,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1176,7 +1188,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1185,31 +1197,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1218,14 +1230,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1246,38 +1258,71 @@
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>924</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>59</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>60</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>61</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>969.53999999999996</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>63</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>64</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>65</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1351,10 +1396,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -110,9 +125,6 @@
     <t>53.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -200,7 +212,7 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:37 AM</t>
+    <t>Tuesday, 19 August, 2025 10:38 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -891,7 +903,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -900,20 +912,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -946,18 +958,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -966,14 +978,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -983,14 +995,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -999,14 +1011,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1023,7 +1035,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1039,7 +1051,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1049,14 +1061,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1065,14 +1077,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,11 +1094,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1098,14 +1110,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1171,7 +1183,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1181,11 +1193,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1197,20 +1209,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1221,7 +1233,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1230,31 +1242,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1263,14 +1275,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1291,38 +1303,71 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>969.53999999999996</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>63</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>64</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>65</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>977.53999999999996</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>67</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>68</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>69</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1401,10 +1446,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -212,7 +212,7 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:38 AM</t>
+    <t>Tuesday, 19 August, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>26.0000</t>
+  </si>
+  <si>
+    <t>كريم ONE للبشره الجافه</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
   </si>
   <si>
     <t>Tuesday, 19 August, 2025 10:39 AM</t>
@@ -1336,38 +1345,71 @@
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>977.53999999999996</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>67</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>39</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>28</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
         <v>68</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c t="s" r="Q22" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>1004.54</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1451,10 +1493,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:39 AM</t>
+    <t>Tuesday, 19 August, 2025 10:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -146,6 +158,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>LAMIVEX ACNE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -155,12 +176,18 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>152.00</t>
   </si>
   <si>
@@ -191,6 +218,15 @@
     <t>170.0000</t>
   </si>
   <si>
+    <t>SHAAN LIP BALM 5 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -221,7 +257,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:41 AM</t>
+    <t>Tuesday, 19 August, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1011,7 +1047,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1027,7 +1063,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1037,14 +1073,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1053,14 +1089,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1077,7 +1113,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1093,7 +1129,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1103,14 +1139,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1119,14 +1155,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1136,11 +1172,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1152,14 +1188,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1192,7 +1228,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1202,11 +1238,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1218,14 +1254,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1235,11 +1271,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1251,31 +1287,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1284,14 +1320,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1301,11 +1337,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1317,14 +1353,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1334,11 +1370,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1350,14 +1386,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1367,49 +1403,181 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>69</v>
       </c>
-      <c t="s" r="Q22" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>1004.54</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>32</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>70</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>71</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c t="s" r="Q23" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>72</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>76</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>77</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>79</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>43</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>28</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1636.54</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1498,10 +1666,30 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:42 AM</t>
+    <t>Tuesday, 19 August, 2025 10:43 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -107,87 +107,87 @@
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>LAMIVEX ACNE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>LAMIVEX ACNE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
     <t>152.00</t>
   </si>
   <si>
@@ -257,7 +257,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:43 AM</t>
+    <t>Tuesday, 19 August, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1030,7 +1030,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1040,11 +1040,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1056,14 +1056,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1073,14 +1073,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1106,11 +1106,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1122,14 +1122,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1188,14 +1188,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1205,11 +1205,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1221,14 +1221,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1238,11 +1238,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1254,14 +1254,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1271,11 +1271,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1287,14 +1287,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1360,7 +1360,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1393,7 +1393,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1426,7 +1426,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1525,7 +1525,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
@@ -257,7 +269,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:49 AM</t>
+    <t>Tuesday, 19 August, 2025 10:51 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1030,7 +1042,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1040,14 +1052,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1056,14 +1068,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1080,7 +1092,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1096,7 +1108,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1106,14 +1118,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1122,14 +1134,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1146,7 +1158,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1162,7 +1174,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1172,14 +1184,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1188,14 +1200,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1205,11 +1217,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1221,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1238,11 +1250,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1254,14 +1266,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1271,11 +1283,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1287,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1360,7 +1372,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1370,11 +1382,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1386,20 +1398,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1410,7 +1422,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1419,31 +1431,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1452,7 +1464,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1469,11 +1481,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1485,14 +1497,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1525,59 +1537,92 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1636.54</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>82</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>83</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>46</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>28</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>84</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1649.54</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1686,10 +1731,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>194.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -146,6 +158,21 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -269,7 +296,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 10:51 AM</t>
+    <t>Tuesday, 19 August, 2025 11:14 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1125,7 +1152,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1141,7 +1168,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1151,14 +1178,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1167,14 +1194,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1191,7 +1218,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1207,7 +1234,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1244,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,14 +1260,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1250,14 +1277,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1266,14 +1293,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1283,11 +1310,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1299,7 +1326,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1316,11 +1343,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1332,14 +1359,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,11 +1376,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1365,14 +1392,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,11 +1409,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1398,14 +1425,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,11 +1442,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1431,31 +1458,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1464,14 +1491,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,11 +1508,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1497,31 +1524,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1530,14 +1557,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1547,11 +1574,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1563,66 +1590,132 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1649.54</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>86</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>87</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>88</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>89</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>90</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>92</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>55</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>28</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>93</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1701.02</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>95</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>96</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>97</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1736,10 +1829,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 11:14 AM</t>
+    <t>Tuesday, 19 August, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -128,19 +128,19 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>0:2</t>
   </si>
   <si>
     <t>69.00</t>
@@ -1152,7 +1152,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1161,14 +1161,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1185,7 +1185,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1685,7 +1685,7 @@
     </row>
     <row r="30" ht="24.75" customHeight="1">
       <c r="P30" s="13">
-        <v>1701.02</v>
+        <v>1716.8599999999999</v>
       </c>
       <c r="Q30" s="13"/>
     </row>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -296,7 +296,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 11:28 AM</t>
+    <t>Tuesday, 19 August, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -131,9 +143,6 @@
     <t>6:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>31.6800</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>كريم ONE للبشره الجافه</t>
   </si>
   <si>
@@ -296,7 +314,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 11:50 AM</t>
+    <t>Tuesday, 19 August, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1020,7 +1038,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1042,15 +1060,15 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>12</v>
@@ -1062,20 +1080,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1086,7 +1104,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1102,7 +1120,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1112,14 +1130,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1128,14 +1146,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1152,7 +1170,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1161,14 +1179,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1178,14 +1196,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1201,7 +1219,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1218,7 +1236,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1234,7 +1252,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1244,14 +1262,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1260,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1277,14 +1295,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1293,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1317,7 +1335,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1333,7 +1351,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1366,7 +1384,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1399,7 +1417,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1432,7 +1450,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1442,11 +1460,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1458,14 +1476,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1475,11 +1493,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1491,14 +1509,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1508,11 +1526,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1524,31 +1542,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1564,13 +1582,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1581,7 +1599,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1630,7 +1648,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1640,11 +1658,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1656,20 +1674,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1684,38 +1702,104 @@
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1716.8599999999999</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>95</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>74</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>32</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>96</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>98</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>58</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>32</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>99</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1726.54</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>101</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>102</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>103</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1839,10 +1923,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -314,7 +314,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 11:54 AM</t>
+    <t>Tuesday, 19 August, 2025 11:55 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -221,6 +221,18 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -233,9 +245,6 @@
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>152.00</t>
   </si>
   <si>
@@ -296,6 +305,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -314,7 +335,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 11:55 AM</t>
+    <t>Tuesday, 19 August, 2025 11:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1450,7 +1471,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1460,11 +1481,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1476,14 +1497,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1516,7 +1537,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1526,11 +1547,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1542,14 +1563,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1559,11 +1580,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1575,31 +1596,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1615,13 +1636,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1632,7 +1653,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1681,7 +1702,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1691,11 +1712,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1707,20 +1728,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1747,7 +1768,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1757,49 +1778,115 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1726.54</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>101</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>102</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>71</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>32</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>103</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>105</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>58</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>32</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>106</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1766.54</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>108</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>109</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>110</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1933,10 +2020,20 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -257,12 +269,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -335,7 +341,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 11:58 AM</t>
+    <t>Tuesday, 19 August, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1059,7 +1065,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1092,7 +1098,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1114,15 +1120,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1134,20 +1140,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1158,7 +1164,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1174,7 +1180,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1184,14 +1190,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1200,14 +1206,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1217,14 +1223,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1240,7 +1246,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1250,14 +1256,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1266,14 +1272,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1283,14 +1289,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1299,14 +1305,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1323,7 +1329,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1332,14 +1338,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1349,14 +1355,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>60</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1372,7 +1378,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,14 +1388,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1398,14 +1404,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1415,11 +1421,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1431,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,11 +1454,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1464,14 +1470,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1504,7 +1510,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1514,11 +1520,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1530,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1547,11 +1553,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1563,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1603,7 +1609,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1613,11 +1619,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1629,31 +1635,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1662,31 +1668,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1695,7 +1701,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1712,11 +1718,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1728,14 +1734,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1745,11 +1751,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1761,28 +1767,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1794,28 +1800,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1827,66 +1833,99 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>107</v>
       </c>
-      <c t="s" r="Q33" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1766.54</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>62</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>36</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>108</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1790.54</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
         <v>110</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2030,10 +2069,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -332,6 +332,18 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>كريم ONE للبشره الجافه</t>
   </si>
   <si>
@@ -341,7 +353,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 12:00 PM</t>
+    <t>Tuesday, 19 August, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1873,7 +1885,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1883,49 +1895,82 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1790.54</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>110</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>111</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>62</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>36</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>112</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1830.54</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>114</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>115</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>116</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2074,10 +2119,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -353,7 +353,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 12:24 PM</t>
+    <t>Tuesday, 19 August, 2025 12:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -104,13 +104,13 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>24:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>31.00</t>
   </si>
   <si>
-    <t>31.0000</t>
+    <t>62.0000</t>
   </si>
   <si>
     <t>CEVA-FRESH TAB</t>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>حلق</t>
-  </si>
-  <si>
-    <t>23:0</t>
   </si>
   <si>
     <t>10.00</t>
@@ -1143,7 +1140,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1819,7 +1816,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1829,11 +1826,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1845,7 +1842,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1862,11 +1859,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1878,14 +1875,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1895,11 +1892,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1911,7 +1908,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1928,11 +1925,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1940,13 +1937,13 @@
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="P36" s="13">
-        <v>1830.54</v>
+        <v>1861.54</v>
       </c>
       <c r="Q36" s="13"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c t="s" r="A37" s="14">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1954,13 +1951,13 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c t="s" r="G37" s="15">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
       <c t="s" r="K37" s="17">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -143,6 +143,9 @@
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
     <t>194.00</t>
   </si>
   <si>
@@ -236,9 +239,6 @@
     <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -297,6 +297,15 @@
   </si>
   <si>
     <t>120.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
   </si>
   <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
@@ -1222,7 +1231,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1232,11 +1241,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1248,14 +1257,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1269,10 +1278,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1281,14 +1290,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1298,14 +1307,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1314,7 +1323,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1331,11 +1340,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1347,14 +1356,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1364,14 +1373,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1380,14 +1389,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1397,11 +1406,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1413,7 +1422,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1430,11 +1439,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1446,14 +1455,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1463,11 +1472,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1479,14 +1488,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1496,11 +1505,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1512,14 +1521,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1552,7 +1561,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1585,7 +1594,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1651,7 +1660,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1684,7 +1693,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1717,7 +1726,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1783,7 +1792,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1793,11 +1802,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1809,20 +1818,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1849,7 +1858,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1882,7 +1891,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1892,14 +1901,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1932,42 +1941,75 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>63</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>36</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>114</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1861.54</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>113</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>114</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>115</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1889.54</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>116</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>117</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>118</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2121,10 +2163,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -359,7 +368,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 12:37 PM</t>
+    <t>Tuesday, 19 August, 2025 12:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1198,7 +1207,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1208,14 +1217,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1224,14 +1233,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1241,14 +1250,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1257,14 +1266,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1274,14 +1283,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1290,14 +1299,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1307,14 +1316,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1330,7 +1339,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1347,7 +1356,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1363,7 +1372,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1373,14 +1382,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1389,14 +1398,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1406,14 +1415,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1422,14 +1431,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1446,7 +1455,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1462,7 +1471,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1495,7 +1504,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1528,7 +1537,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1561,7 +1570,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1594,7 +1603,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1627,7 +1636,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1637,11 +1646,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1686,31 +1695,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1726,13 +1735,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1743,7 +1752,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1759,7 +1768,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1792,7 +1801,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1825,7 +1834,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1835,11 +1844,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1851,20 +1860,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1891,7 +1900,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1924,7 +1933,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1934,14 +1943,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1950,14 +1959,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1974,42 +1983,75 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>66</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>36</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>117</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1889.54</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>116</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
-        <v>117</v>
-      </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
-        <v>118</v>
-      </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1922.54</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>119</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>120</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>121</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2168,10 +2210,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 12:38 PM</t>
+    <t>Tuesday, 19 August, 2025 12:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LAMIVEX ACNE GEL 50 GM</t>
   </si>
   <si>
@@ -273,9 +282,6 @@
   </si>
   <si>
     <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
   </si>
   <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
@@ -1504,7 +1510,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,7 +1520,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1537,7 +1543,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1570,7 +1576,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1669,7 +1675,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,11 +1685,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1695,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1728,31 +1734,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1761,7 +1767,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1774,18 +1780,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1811,11 +1817,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1827,14 +1833,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,11 +1850,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1860,14 +1866,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1877,11 +1883,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1893,28 +1899,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1926,14 +1932,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1943,11 +1949,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1959,14 +1965,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1976,14 +1982,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,14 +1998,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2009,49 +2015,82 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>118</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1922.54</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>66</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>36</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
         <v>119</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>120</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1958.54</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
         <v>121</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>122</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>123</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2215,10 +2254,15 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -218,6 +227,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -374,7 +392,7 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 12:44 PM</t>
+    <t>Tuesday, 19 August, 2025 12:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1147,7 +1165,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1157,14 +1175,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1173,31 +1191,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1206,20 +1224,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1246,7 +1264,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1256,14 +1274,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1272,14 +1290,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,14 +1307,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,14 +1323,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1322,14 +1340,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1338,14 +1356,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1373,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1378,7 +1396,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1395,7 +1413,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1411,7 +1429,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1421,14 +1439,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>64</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1437,14 +1455,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1454,14 +1472,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1470,14 +1488,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1494,7 +1512,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1510,7 +1528,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1520,7 +1538,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1543,7 +1561,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1576,7 +1594,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1586,7 +1604,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1609,7 +1627,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1642,7 +1660,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1675,7 +1693,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1708,7 +1726,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,11 +1736,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1734,14 +1752,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,11 +1769,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1767,31 +1785,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1800,14 +1818,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1817,11 +1835,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1840,13 +1858,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1857,7 +1875,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1873,7 +1891,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1906,7 +1924,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,11 +1934,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1932,28 +1950,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -1965,20 +1983,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2005,24 +2023,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,66 +2049,132 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>120</v>
       </c>
-      <c t="s" r="Q38" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1958.54</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>121</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>39</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>122</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>123</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>124</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>69</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>39</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>125</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2041.54</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>127</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>128</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>129</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2259,10 +2343,20 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -389,10 +398,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>Tuesday, 19 August, 2025 12:48 PM</t>
+    <t>Tuesday, 19 August, 2025 12:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1495,7 +1501,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1505,14 +1511,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1521,14 +1527,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1545,7 +1551,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1561,7 +1567,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1594,7 +1600,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1604,7 +1610,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -1627,7 +1633,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1637,7 +1643,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1660,7 +1666,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1693,7 +1699,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1792,7 +1798,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1802,11 +1808,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1818,14 +1824,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1851,31 +1857,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1897,7 +1903,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1908,7 +1914,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1924,7 +1930,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1957,7 +1963,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1990,7 +1996,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2000,11 +2006,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2016,20 +2022,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2056,7 +2062,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2089,7 +2095,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2099,14 +2105,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2115,14 +2121,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2139,42 +2145,75 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2041.54</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>127</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>72</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>39</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>128</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2068.54</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>129</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>130</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>131</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2353,10 +2392,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 12:49 PM</t>
+    <t>Tuesday, 19 August, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -137,6 +146,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -398,7 +416,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 12:54 PM</t>
+    <t>Tuesday, 19 August, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1072,7 +1090,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1082,14 +1100,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1098,14 +1116,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1115,14 +1133,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1131,14 +1149,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1148,14 +1166,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1164,14 +1182,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1188,7 +1206,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1204,7 +1222,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1214,14 +1232,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1230,31 +1248,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1263,20 +1281,20 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1303,7 +1321,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1313,14 +1331,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1329,14 +1347,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1346,11 +1364,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1362,14 +1380,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1379,14 +1397,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1395,7 +1413,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1412,14 +1430,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1428,14 +1446,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1445,14 +1463,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1468,7 +1486,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1478,14 +1496,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1494,7 +1512,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1511,14 +1529,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1527,14 +1545,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1544,14 +1562,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1560,14 +1578,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1577,14 +1595,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1593,14 +1611,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1617,7 +1635,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1633,7 +1651,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1643,7 +1661,7 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
@@ -1666,7 +1684,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1699,7 +1717,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1709,7 +1727,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1732,7 +1750,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1765,7 +1783,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1798,7 +1816,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1831,7 +1849,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,11 +1859,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1857,14 +1875,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,11 +1892,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -1890,31 +1908,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,14 +1941,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1940,11 +1958,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1963,13 +1981,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1980,7 +1998,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1996,7 +2014,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2029,7 +2047,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2039,11 +2057,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2055,28 +2073,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2088,20 +2106,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2128,24 +2146,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2154,66 +2172,132 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2068.54</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>129</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>130</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>42</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>131</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>78</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>42</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>134</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="P44" s="13">
+        <v>2145.0999999999999</v>
+      </c>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c t="s" r="A45" s="14">
+        <v>135</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c t="s" r="G45" s="15">
+        <v>136</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c t="s" r="K45" s="17">
+        <v>137</v>
+      </c>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="197">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2397,10 +2481,20 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="K45:Q45"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -416,7 +416,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 12:55 PM</t>
+    <t>Tuesday, 19 August, 2025 1:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -248,9 +260,6 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -326,6 +335,15 @@
     <t>152.0000</t>
   </si>
   <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -350,6 +368,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -416,7 +443,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 1:07 PM</t>
+    <t>Tuesday, 19 August, 2025 1:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1294,18 +1321,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1314,31 +1341,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1347,14 +1374,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1364,14 +1391,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1380,14 +1407,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1404,7 +1431,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1437,7 +1464,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1486,7 +1513,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1496,14 +1523,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1529,14 +1556,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1545,14 +1572,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1569,7 +1596,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1578,14 +1605,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1602,7 +1629,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1611,14 +1638,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1635,7 +1662,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1651,7 +1678,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1684,7 +1711,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1717,7 +1744,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1727,7 +1754,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1750,7 +1777,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1760,7 +1787,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1783,7 +1810,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1816,7 +1843,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1849,7 +1876,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1882,7 +1909,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1915,7 +1942,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1925,11 +1952,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -1941,14 +1968,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1958,11 +1985,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -1974,31 +2001,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2024,11 +2051,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2047,13 +2074,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2064,7 +2091,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2080,7 +2107,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2113,7 +2140,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2123,11 +2150,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2139,28 +2166,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2172,28 +2199,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2205,31 +2232,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2238,66 +2265,165 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
-      <c r="P44" s="13">
-        <v>2145.0999999999999</v>
-      </c>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c t="s" r="A45" s="14">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>135</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c t="s" r="G45" s="15">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>60</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>46</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
         <v>136</v>
       </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="16"/>
-      <c t="s" r="K45" s="17">
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
+      <c t="s" r="Q44" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>138</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>139</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>46</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>140</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>142</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>82</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>46</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>143</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2288.0999999999999</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>144</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>145</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>146</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="197">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2491,10 +2617,25 @@
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="L43:M43"/>
     <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -443,7 +443,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 1:09 PM</t>
+    <t>Tuesday, 19 August, 2025 1:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -407,6 +407,30 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8389:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -416,13 +440,16 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>قطن 100 جم</t>
@@ -443,7 +470,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 1:19 PM</t>
+    <t>Tuesday, 19 August, 2025 1:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2272,24 +2299,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,31 +2325,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2331,14 +2358,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2348,14 +2375,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2364,14 +2391,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2381,49 +2408,148 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>145</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>60</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>46</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>138</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>147</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>148</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>46</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>149</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>151</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>82</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>46</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>152</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>80</v>
       </c>
-      <c t="s" r="Q46" s="12">
+      <c t="s" r="Q49" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2288.0999999999999</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>144</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>145</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>146</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2324.9299999999998</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>153</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>154</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>155</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2632,10 +2758,25 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -470,7 +470,16 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 1:36 PM</t>
+    <t>كريم هيرفود بالمرز انبوبه 50 مل</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 19 August, 2025 1:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2518,38 +2527,71 @@
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2324.9299999999998</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>153</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>12</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>46</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>154</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>155</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2394.9299999999998</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>156</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>157</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>158</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2773,10 +2815,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -134,9 +146,6 @@
     <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -479,7 +488,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 1:37 PM</t>
+    <t>Tuesday, 19 August, 2025 3:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1285,7 +1294,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1295,11 +1304,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1311,14 +1320,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1335,7 +1344,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1368,7 +1377,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1384,24 +1393,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1410,20 +1419,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1434,7 +1443,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1450,7 +1459,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1467,7 +1476,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1483,7 +1492,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1493,14 +1502,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1509,14 +1518,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1526,14 +1535,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1542,14 +1551,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1559,14 +1568,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1575,14 +1584,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>66</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1615,7 +1624,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1632,7 +1641,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1648,7 +1657,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,14 +1667,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,14 +1683,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1691,14 +1700,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>80</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1714,7 +1723,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,14 +1733,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1747,7 +1756,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,14 +1766,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1780,7 +1789,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1813,7 +1822,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,7 +1832,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1846,7 +1855,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,7 +1865,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1879,7 +1888,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1912,7 +1921,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1945,7 +1954,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1978,7 +1987,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2011,7 +2020,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2044,7 +2053,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,11 +2063,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2103,31 +2112,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2143,13 +2152,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2160,7 +2169,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2176,7 +2185,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2209,7 +2218,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2242,7 +2251,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2275,7 +2284,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2285,11 +2294,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>82</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,20 +2376,20 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2391,7 +2400,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2407,13 +2416,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2421,10 +2430,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>82</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,31 +2442,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2466,28 +2475,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2499,20 +2508,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2520,10 +2529,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,66 +2541,99 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2394.9299999999998</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>156</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>49</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>157</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>158</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2437.9299999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>159</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>160</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>161</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2820,10 +2862,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -353,6 +362,9 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -488,7 +500,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 3:08 PM</t>
+    <t>Tuesday, 19 August, 2025 3:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1624,7 +1636,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1641,7 +1653,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1657,7 +1669,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1674,7 +1686,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1690,7 +1702,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1700,14 +1712,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1716,14 +1728,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1733,14 +1745,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>83</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1756,7 +1768,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1766,14 +1778,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1789,7 +1801,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1799,14 +1811,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1822,7 +1834,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1855,7 +1867,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1865,7 +1877,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -1888,7 +1900,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1898,7 +1910,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1921,7 +1933,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1954,7 +1966,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2053,7 +2065,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2086,7 +2098,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2129,11 +2141,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2145,31 +2157,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2185,7 +2197,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2195,11 +2207,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2211,7 +2223,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2224,18 +2236,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2244,14 +2256,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2261,11 +2273,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2277,14 +2289,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2294,11 +2306,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2327,11 +2339,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2360,14 +2372,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2409,31 +2421,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2442,31 +2454,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2515,7 +2527,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2541,14 +2553,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2591,49 +2603,115 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>158</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2437.9299999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>88</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>49</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>159</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>160</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>49</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>161</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2519.9299999999998</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>163</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>164</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>165</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2867,10 +2945,20 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -416,12 +416,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -500,7 +506,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 3:30 PM</t>
+    <t>Tuesday, 19 August, 2025 4:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2405,11 +2411,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2421,14 +2427,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2438,14 +2444,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2454,14 +2460,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2471,14 +2477,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2487,31 +2493,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2520,14 +2526,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2537,14 +2543,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2570,14 +2576,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2593,7 +2599,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2603,11 +2609,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2619,14 +2625,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2636,14 +2642,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2659,7 +2665,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2673,45 +2679,78 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>162</v>
       </c>
-      <c t="s" r="Q53" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2519.9299999999998</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>12</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>49</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>163</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>164</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2550.9299999999998</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
         <v>165</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>166</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>167</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2955,10 +2994,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -506,7 +515,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 4:01 PM</t>
+    <t>Tuesday, 19 August, 2025 4:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2236,13 +2245,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2253,7 +2262,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2275,7 +2284,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2286,7 +2295,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2335,7 +2344,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2368,7 +2377,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2401,7 +2410,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2411,7 +2420,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2434,7 +2443,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2444,7 +2453,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2467,7 +2476,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2477,14 +2486,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2493,14 +2502,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2510,14 +2519,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2526,20 +2535,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2550,7 +2559,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2566,7 +2575,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2580,10 +2589,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2592,7 +2601,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2609,14 +2618,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2642,11 +2651,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2679,10 +2688,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2691,14 +2700,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2708,49 +2717,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2550.9299999999998</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>165</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>49</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>166</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>167</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2573.9299999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>168</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>169</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>170</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2999,10 +3041,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 4:33 PM</t>
+    <t>Tuesday, 19 August, 2025 4:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -113,9 +128,6 @@
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>86.00</t>
   </si>
   <si>
@@ -125,9 +137,6 @@
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -218,9 +227,6 @@
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -485,9 +491,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -515,7 +518,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 4:45 PM</t>
+    <t>Tuesday, 19 August, 2025 4:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1272,7 +1275,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1281,14 +1284,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1298,14 +1301,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1314,14 +1317,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1331,11 +1334,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1347,14 +1350,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1364,11 +1367,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>20</v>
@@ -1380,14 +1383,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1397,14 +1400,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1413,14 +1416,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1437,7 +1440,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1453,24 +1456,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1479,20 +1482,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1503,7 +1506,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1519,7 +1522,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1536,7 +1539,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1552,7 +1555,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1562,14 +1565,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1578,14 +1581,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1595,14 +1598,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1611,14 +1614,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1628,14 +1631,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1644,14 +1647,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1661,14 +1664,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1677,14 +1680,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,14 +1697,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1710,14 +1713,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1727,14 +1730,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1760,14 +1763,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1776,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1793,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1809,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,14 +1829,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1842,14 +1845,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1859,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1875,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1892,11 +1895,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1908,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1925,11 +1928,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1941,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,11 +1994,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,11 +2027,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2040,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2057,11 +2060,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2073,14 +2076,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2090,11 +2093,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2123,11 +2126,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2139,14 +2142,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,11 +2159,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2172,14 +2175,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,11 +2192,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2205,14 +2208,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,11 +2225,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2238,14 +2241,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2271,31 +2274,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2304,31 +2307,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2337,14 +2340,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,11 +2357,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,11 +2390,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2403,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2420,11 +2423,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2436,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,11 +2456,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2469,14 +2472,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2486,11 +2489,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2502,14 +2505,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2519,14 +2522,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,14 +2538,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2552,14 +2555,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>88</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,31 +2571,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,31 +2604,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2641,24 +2644,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2674,24 +2677,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2700,31 +2703,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2733,66 +2736,99 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>166</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>52</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>167</v>
       </c>
-      <c t="s" r="Q55" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2573.9299999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
         <v>168</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2603.6700000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
         <v>169</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
         <v>170</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>171</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3046,10 +3082,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -89,144 +89,147 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>25.7400</t>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -371,6 +374,18 @@
     <t>OCTOZINC 25MG 20 CAPS</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -380,6 +395,9 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>92.00</t>
   </si>
   <si>
@@ -518,7 +536,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 4:46 PM</t>
+    <t>Tuesday, 19 August, 2025 5:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1275,7 +1293,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1284,14 +1302,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1301,11 +1319,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1317,14 +1335,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1334,11 +1352,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -1350,14 +1368,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1456,7 +1474,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1522,7 +1540,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1664,14 +1682,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1680,14 +1698,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1697,11 +1715,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1713,14 +1731,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1730,14 +1748,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1746,7 +1764,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1763,11 +1781,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1779,14 +1797,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,14 +1814,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1812,7 +1830,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1829,11 +1847,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -1845,14 +1863,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1866,7 +1884,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1878,7 +1896,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1895,11 +1913,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1911,7 +1929,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1928,11 +1946,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1944,14 +1962,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1965,7 +1983,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1977,7 +1995,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1994,11 +2012,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2010,14 +2028,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,11 +2045,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2043,7 +2061,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2060,11 +2078,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2076,7 +2094,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2093,11 +2111,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2109,7 +2127,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2126,11 +2144,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2142,7 +2160,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2159,11 +2177,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2175,7 +2193,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2192,11 +2210,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,11 +2276,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2274,14 +2292,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,14 +2309,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2307,31 +2325,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,7 +2358,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2353,18 +2371,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2373,7 +2391,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2390,11 +2408,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2406,7 +2424,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2423,11 +2441,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2439,14 +2457,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,11 +2474,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2472,14 +2490,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2489,11 +2507,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2505,14 +2523,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,11 +2540,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2538,7 +2556,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2555,14 +2573,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2588,14 +2606,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2604,31 +2622,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2637,14 +2655,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,14 +2672,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,7 +2688,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2687,14 +2705,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,14 +2721,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2720,14 +2738,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2736,14 +2754,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,14 +2771,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2769,14 +2787,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2786,49 +2804,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2603.6700000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>169</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>170</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
-        <v>171</v>
-      </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>172</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>12</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>52</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>173</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2605.77</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>175</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>176</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>177</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3087,10 +3138,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
     <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -536,7 +545,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 5:05 PM</t>
+    <t>Tuesday, 19 August, 2025 5:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2101,7 +2110,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2118,7 +2127,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2200,7 +2209,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2210,11 +2219,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2276,14 +2285,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2358,20 +2367,20 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2382,7 +2391,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2404,7 +2413,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2415,7 +2424,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2497,7 +2506,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2530,7 +2539,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2540,7 +2549,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2563,7 +2572,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2573,7 +2582,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2596,7 +2605,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,20 +2664,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2679,7 +2688,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2695,7 +2704,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2709,10 +2718,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2721,7 +2730,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2738,14 +2747,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2771,14 +2780,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2808,10 +2817,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2820,14 +2829,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2837,49 +2846,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2605.77</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>175</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>12</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>52</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
         <v>176</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
         <v>177</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2669.625</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>178</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>179</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>180</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3143,10 +3185,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -194,6 +194,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -284,9 +296,6 @@
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
@@ -416,9 +425,6 @@
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
     <t>170.0000</t>
   </si>
   <si>
@@ -545,7 +551,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 5:23 PM</t>
+    <t>Tuesday, 19 August, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1665,7 +1671,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1691,14 +1697,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1714,7 +1720,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1724,14 +1730,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1740,14 +1746,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1757,14 +1763,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1773,14 +1779,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1790,14 +1796,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1806,14 +1812,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1830,7 +1836,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1839,14 +1845,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1863,7 +1869,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1872,14 +1878,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1889,14 +1895,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1905,14 +1911,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1922,14 +1928,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1945,7 +1951,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1978,7 +1984,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1988,7 +1994,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2011,7 +2017,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2021,7 +2027,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2044,7 +2050,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2077,7 +2083,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2110,7 +2116,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2127,7 +2133,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2143,7 +2149,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2160,7 +2166,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2176,7 +2182,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2209,7 +2215,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2242,7 +2248,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2252,11 +2258,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2268,14 +2274,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2285,14 +2291,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2301,14 +2307,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2318,14 +2324,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2334,14 +2340,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2367,14 +2373,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2384,14 +2390,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2400,20 +2406,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2424,7 +2430,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2440,24 +2446,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2466,14 +2472,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2483,11 +2489,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2499,7 +2505,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2516,11 +2522,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2532,14 +2538,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2549,11 +2555,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2565,14 +2571,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2582,11 +2588,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2598,14 +2604,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2615,11 +2621,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2631,14 +2637,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2648,14 +2654,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2664,14 +2670,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2681,14 +2687,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2697,31 +2703,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2730,14 +2736,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2747,14 +2753,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>91</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2770,7 +2776,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2780,14 +2786,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2796,14 +2802,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,14 +2819,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,14 +2852,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2869,7 +2875,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2883,45 +2889,78 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>177</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2669.625</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>52</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>178</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>179</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2688.625</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
         <v>180</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>181</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>182</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3190,10 +3229,15 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -146,9 +158,6 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -197,9 +206,6 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -218,6 +224,12 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
@@ -299,6 +311,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FOSTINOCORT TOPICAL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
@@ -383,12 +404,6 @@
     <t>OCTOVENT PLUS SYRUP 100 ML</t>
   </si>
   <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
     <t>OCTOZINC 25MG 20 CAPS</t>
   </si>
   <si>
@@ -470,9 +485,6 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -482,6 +494,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -551,7 +575,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 5:26 PM</t>
+    <t>Tuesday, 19 August, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1308,7 +1332,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1341,7 +1365,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1374,7 +1398,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1423,7 +1447,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1433,11 +1457,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>20</v>
@@ -1449,14 +1473,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1466,14 +1490,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1489,7 +1513,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1499,14 +1523,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1522,24 +1546,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1548,20 +1572,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1572,7 +1596,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1588,7 +1612,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1605,7 +1629,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1621,7 +1645,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1631,14 +1655,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1647,14 +1671,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1664,11 +1688,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1680,14 +1704,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1697,14 +1721,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1713,14 +1737,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1730,14 +1754,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1746,14 +1770,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1763,11 +1787,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1779,14 +1803,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1796,14 +1820,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1812,14 +1836,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1829,14 +1853,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1845,14 +1869,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1862,14 +1886,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1878,7 +1902,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1895,11 +1919,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1911,14 +1935,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1928,14 +1952,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1944,14 +1968,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1961,14 +1985,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1977,14 +2001,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1994,14 +2018,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2010,14 +2034,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2027,11 +2051,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2043,14 +2067,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2060,11 +2084,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2076,14 +2100,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2093,11 +2117,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2109,14 +2133,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2126,11 +2150,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2142,14 +2166,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2159,14 +2183,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2175,14 +2199,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2192,11 +2216,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2208,14 +2232,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2225,11 +2249,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2241,7 +2265,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2258,14 +2282,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2291,11 +2315,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2314,7 +2338,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2324,14 +2348,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2357,11 +2381,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2373,14 +2397,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,11 +2414,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2406,14 +2430,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2423,11 +2447,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2439,31 +2463,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2472,14 +2496,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2489,11 +2513,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2522,14 +2546,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2538,31 +2562,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2588,11 +2612,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2604,14 +2628,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2621,11 +2645,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2654,11 +2678,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2720,14 +2744,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2736,28 +2760,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2769,31 +2793,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2802,31 +2826,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2835,31 +2859,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2868,28 +2892,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>93</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2901,66 +2925,198 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>178</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>74</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>55</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>171</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
         <v>179</v>
       </c>
-      <c t="s" r="Q59" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2688.625</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
         <v>180</v>
       </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>55</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
         <v>181</v>
       </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>182</v>
       </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>183</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>26</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>55</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>184</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>185</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>12</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>55</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>186</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2822.625</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>188</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>189</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>190</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3234,10 +3390,30 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -224,6 +236,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -233,9 +257,6 @@
     <t>DIMICAP FACIAL WASH 250 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>194.00</t>
   </si>
   <si>
@@ -338,6 +359,9 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -434,9 +458,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -521,13 +542,16 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8389:0</t>
+    <t>8387:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>ZINC ORIGIN 0.2GM/100ML SYRUP 120 ML</t>
   </si>
   <si>
     <t>حلق</t>
@@ -536,9 +560,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -575,7 +596,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 5:27 PM</t>
+    <t>Tuesday, 19 August, 2025 6:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1431,7 +1452,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1480,7 +1501,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1490,11 +1511,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1506,14 +1527,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1523,14 +1544,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1539,14 +1560,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1556,14 +1577,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1572,31 +1593,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1605,31 +1626,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1638,14 +1659,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1655,14 +1676,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1671,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1688,14 +1709,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1704,14 +1725,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1744,7 +1765,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1754,14 +1775,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1770,14 +1791,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1787,11 +1808,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1803,14 +1824,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1820,14 +1841,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1843,7 +1864,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1876,7 +1897,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1886,14 +1907,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1902,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1919,14 +1940,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1935,14 +1956,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1959,7 +1980,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1968,7 +1989,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1985,11 +2006,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2001,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2018,14 +2039,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2034,14 +2055,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2051,14 +2072,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2067,14 +2088,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2084,14 +2105,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2100,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2117,11 +2138,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2133,14 +2154,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2150,11 +2171,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2183,11 +2204,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2216,11 +2237,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2232,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2249,11 +2270,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2265,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2282,14 +2303,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2298,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2315,11 +2336,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2348,11 +2369,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2364,7 +2385,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2381,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2397,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2414,11 +2435,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2463,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2480,11 +2501,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2513,11 +2534,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2529,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2546,11 +2567,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2562,31 +2583,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2612,11 +2633,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2628,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2649,10 +2670,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2661,31 +2682,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2711,11 +2732,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2744,11 +2765,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2777,11 +2798,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2793,14 +2814,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2810,11 +2831,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2843,14 +2864,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>27</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2859,14 +2880,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2876,14 +2897,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2892,28 +2913,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2925,31 +2946,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>74</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2958,31 +2979,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2991,31 +3012,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3024,28 +3045,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3057,66 +3078,198 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>185</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>38</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>59</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>178</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>186</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
         <v>187</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2822.625</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>59</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
         <v>188</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>189</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>190</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>26</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>59</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>191</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>192</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>59</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>193</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="P68" s="13">
+        <v>2992.625</v>
+      </c>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c t="s" r="A69" s="14">
+        <v>195</v>
+      </c>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c t="s" r="G69" s="15">
+        <v>196</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c t="s" r="K69" s="17">
+        <v>197</v>
+      </c>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="317">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3410,10 +3563,30 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="K69:Q69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -206,6 +215,18 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -302,6 +323,18 @@
     <t>53.0000</t>
   </si>
   <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -329,9 +362,6 @@
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
-    <t>72.0000</t>
-  </si>
-  <si>
     <t>FOSTINOCORT TOPICAL CREAM 20 GM</t>
   </si>
   <si>
@@ -398,6 +428,9 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -473,6 +506,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
@@ -482,6 +524,15 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>TENSOPLERON 25MG 30 F.C TAB</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
@@ -530,9 +581,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>4:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -596,7 +644,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 6:27 PM</t>
+    <t>Tuesday, 19 August, 2025 6:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1435,7 +1483,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1445,11 +1493,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1461,14 +1509,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1478,14 +1526,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1494,14 +1542,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1511,11 +1559,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1527,14 +1575,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1544,11 +1592,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1560,14 +1608,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1577,14 +1625,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1600,7 +1648,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1610,14 +1658,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1633,24 +1681,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1659,20 +1707,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1683,7 +1731,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1699,7 +1747,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1716,7 +1764,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1732,7 +1780,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,14 +1790,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1758,14 +1806,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1782,7 +1830,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1798,7 +1846,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,14 +1856,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1824,14 +1872,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1845,10 +1893,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1857,14 +1905,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,11 +1922,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1890,14 +1938,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1955,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1930,7 +1978,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1963,7 +2011,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,14 +2021,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2037,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,14 +2054,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2022,14 +2070,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2046,7 +2094,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2055,7 +2103,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2072,11 +2120,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2088,14 +2136,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2105,14 +2153,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,14 +2169,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,14 +2186,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,14 +2202,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,14 +2219,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2187,14 +2235,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2204,14 +2252,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2220,14 +2268,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,11 +2285,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2253,14 +2301,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,11 +2318,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2286,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,11 +2351,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2319,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,11 +2384,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2352,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,11 +2417,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>58</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2385,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,14 +2450,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2418,14 +2466,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,11 +2483,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2451,14 +2499,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,11 +2516,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2484,14 +2532,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,11 +2549,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2517,14 +2565,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2582,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2598,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,14 +2615,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,14 +2631,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,11 +2648,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2616,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,11 +2681,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2649,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2714,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,31 +2730,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2715,14 +2763,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,11 +2780,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2748,14 +2796,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,11 +2813,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2788,7 +2836,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2821,24 +2869,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,14 +2895,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,11 +2912,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>28</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2887,7 +2935,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2920,7 +2968,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2930,11 +2978,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2946,31 +2994,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,14 +3027,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2996,14 +3044,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,14 +3060,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3029,11 +3077,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3045,28 +3093,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>181</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3078,31 +3126,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3118,24 +3166,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,31 +3192,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3177,31 +3225,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3210,7 +3258,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3223,53 +3271,251 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>27</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>55</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>62</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>198</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>199</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>41</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>62</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>200</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>41</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>62</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>194</v>
       </c>
-      <c t="s" r="Q67" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="P68" s="13">
-        <v>2992.625</v>
-      </c>
-      <c r="Q68" s="13"/>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c t="s" r="A69" s="14">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>195</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c t="s" r="G69" s="15">
-        <v>196</v>
-      </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="16"/>
-      <c t="s" r="K69" s="17">
-        <v>197</v>
-      </c>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
-      <c r="Q69" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>202</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>203</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>62</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>204</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>206</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>26</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>62</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>207</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>208</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>12</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>62</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>209</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3730.625</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>211</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>212</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>213</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="317">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3583,10 +3829,40 @@
     <mergeCell ref="H67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -617,6 +617,18 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -644,7 +656,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 6:28 PM</t>
+    <t>Tuesday, 19 August, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3414,7 +3426,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3430,7 +3442,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3440,14 +3452,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3456,14 +3468,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3473,49 +3485,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3730.625</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>211</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
         <v>212</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>12</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>62</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>213</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3785.625</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>215</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>216</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>217</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3859,10 +3904,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -113,372 +113,381 @@
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>210.0000</t>
+  </si>
+  <si>
+    <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CEPOREX 1GM 8 TABLETS</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>42.9000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>24.00</t>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>FOSTINOCORT TOPICAL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAMIVEX ACNE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>210.0000</t>
-  </si>
-  <si>
-    <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CEPOREX 1GM 8 TABLETS</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>42.9000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>FOSTINOCORT TOPICAL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LAMIVEX ACNE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL 300MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>OCTOZINC 25MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>15.3600</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -656,7 +665,7 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 6:30 PM</t>
+    <t>Tuesday, 19 August, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1462,7 +1471,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1472,14 +1481,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1488,7 +1497,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1505,11 +1514,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>12</v>
@@ -1521,14 +1530,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1538,11 +1547,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1554,14 +1563,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1571,11 +1580,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1587,14 +1596,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1604,11 +1613,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1620,7 +1629,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1641,7 +1650,7 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1653,14 +1662,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1674,7 +1683,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1686,14 +1695,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1703,11 +1712,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1719,28 +1728,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1752,14 +1761,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1769,11 +1778,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1785,14 +1794,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1802,11 +1811,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1818,14 +1827,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1835,11 +1844,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1851,7 +1860,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1868,11 +1877,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>20</v>
@@ -1884,14 +1893,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1901,11 +1910,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>20</v>
@@ -1917,14 +1926,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1934,11 +1943,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1950,7 +1959,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1967,11 +1976,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1983,14 +1992,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2000,11 +2009,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2016,14 +2025,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2066,11 +2075,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2082,14 +2091,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2099,14 +2108,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2115,7 +2124,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2132,11 +2141,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2148,14 +2157,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2165,11 +2174,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2181,14 +2190,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2198,14 +2207,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>111</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2214,7 +2223,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2231,11 +2240,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2247,7 +2256,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2264,11 +2273,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2297,11 +2306,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2313,14 +2322,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2330,11 +2339,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2346,7 +2355,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2363,11 +2372,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2379,14 +2388,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2396,11 +2405,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2429,11 +2438,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2445,14 +2454,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2462,11 +2471,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2495,11 +2504,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2511,14 +2520,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2528,11 +2537,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2544,14 +2553,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2561,11 +2570,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2577,14 +2586,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2594,14 +2603,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2610,14 +2619,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2627,14 +2636,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2643,14 +2652,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2660,11 +2669,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2676,14 +2685,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2693,11 +2702,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2726,11 +2735,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2759,14 +2768,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2775,14 +2784,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2792,14 +2801,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2825,11 +2834,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2881,24 +2890,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2907,31 +2916,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2980,7 +2989,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3013,13 +3022,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3046,13 +3055,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3079,7 +3088,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3112,7 +3121,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3122,11 +3131,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>28</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3155,11 +3164,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3178,7 +3187,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3188,11 +3197,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3204,14 +3213,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3228,7 +3237,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3244,7 +3253,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3254,14 +3263,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3287,14 +3296,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3303,28 +3312,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>27</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3336,31 +3345,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3369,31 +3378,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3402,31 +3411,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3435,31 +3444,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3468,20 +3477,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3489,10 +3498,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3501,66 +3510,99 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3785.625</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>215</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>12</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>61</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
         <v>216</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>217</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3882.625</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>218</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>219</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>220</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3909,10 +3951,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>210.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>47.3100</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -230,25 +242,34 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COSMOFER 50MG/ML FOR INF. 5 AMPS.</t>
+  </si>
+  <si>
+    <t>470.00</t>
+  </si>
+  <si>
+    <t>564.0000</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>17.0000</t>
+    <t>102.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>4:3</t>
+    <t>3:3</t>
   </si>
   <si>
     <t>65.00</t>
   </si>
   <si>
-    <t>13.0000</t>
+    <t>78.0000</t>
   </si>
   <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
@@ -611,6 +632,18 @@
     <t>ZINC ORIGIN 0.2GM/100ML SYRUP 120 ML</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>35:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -626,6 +659,15 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -644,12 +686,15 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>كريم ONE للبشره الجافه</t>
   </si>
   <si>
@@ -665,7 +710,13 @@
     <t>70.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 7:01 PM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>Tuesday, 19 August, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1537,7 +1588,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1547,14 +1598,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1587,7 +1638,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1636,7 +1687,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1646,11 +1697,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1662,14 +1713,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1679,14 +1730,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1695,14 +1746,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1712,14 +1763,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1728,31 +1779,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1761,31 +1812,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1794,14 +1845,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1815,10 +1866,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1827,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1844,11 +1895,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1860,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1877,14 +1928,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1893,14 +1944,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1917,7 +1968,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1933,7 +1984,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1943,14 +1994,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1959,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1980,10 +2031,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1992,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2009,11 +2060,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2025,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2042,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2065,7 +2116,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2075,11 +2126,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2091,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2108,14 +2159,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>92</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2131,7 +2182,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2141,14 +2192,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2157,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2181,7 +2232,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2197,7 +2248,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2207,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2223,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2240,14 +2291,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2256,14 +2307,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2273,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2289,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2306,14 +2357,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2322,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2339,14 +2390,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2355,14 +2406,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2372,11 +2423,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2388,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2405,11 +2456,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2421,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2438,11 +2489,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2454,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2471,11 +2522,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2487,14 +2538,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2504,11 +2555,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2520,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2537,11 +2588,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2553,14 +2604,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2570,11 +2621,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2586,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2603,11 +2654,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2619,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2636,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2652,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2669,11 +2720,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2685,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2702,14 +2753,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2718,14 +2769,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2735,11 +2786,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2751,14 +2802,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2768,11 +2819,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2784,14 +2835,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2801,14 +2852,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2817,14 +2868,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2834,11 +2885,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2850,14 +2901,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2867,14 +2918,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2883,14 +2934,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2900,14 +2951,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2916,31 +2967,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2949,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2966,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2982,31 +3033,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3015,14 +3066,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3032,11 +3083,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3048,28 +3099,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3081,7 +3132,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3098,11 +3149,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3114,28 +3165,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3147,14 +3198,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3164,11 +3215,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>27</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3180,14 +3231,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3197,11 +3248,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3213,14 +3264,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3230,11 +3281,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3253,7 +3304,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3270,7 +3321,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3303,7 +3354,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3319,7 +3370,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3329,14 +3380,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3345,31 +3396,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3378,31 +3429,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3411,31 +3462,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>127</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3444,28 +3495,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3477,31 +3528,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3510,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3543,66 +3594,264 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3882.625</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>218</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>219</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>220</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>65</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>221</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>223</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>224</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>65</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>209</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>226</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>44</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>65</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>227</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>228</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>26</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>65</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>229</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>230</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>12</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>65</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>231</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>233</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>234</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>65</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>34</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4853.9350000000004</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>235</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>236</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>237</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3956,10 +4205,40 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -716,7 +716,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 7:03 PM</t>
+    <t>Tuesday, 19 August, 2025 7:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -443,21 +443,24 @@
     <t>126.00</t>
   </si>
   <si>
+    <t>167.5800</t>
+  </si>
+  <si>
+    <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
     <t>126.0000</t>
   </si>
   <si>
-    <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL 300MG 30 CAPSULES</t>
-  </si>
-  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -632,6 +635,18 @@
     <t>ZINC ORIGIN 0.2GM/100ML SYRUP 120 ML</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>24:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -665,9 +680,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -692,9 +704,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>كريم ONE للبشره الجافه</t>
   </si>
   <si>
@@ -716,7 +725,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 7:04 PM</t>
+    <t>Tuesday, 19 August, 2025 7:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2644,7 +2653,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2661,7 +2670,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2724,7 +2733,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2736,7 +2745,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2753,11 +2762,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>20</v>
@@ -2769,7 +2778,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2786,11 +2795,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2802,7 +2811,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2819,11 +2828,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2835,7 +2844,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2868,7 +2877,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2901,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2918,11 +2927,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2934,7 +2943,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2955,7 +2964,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2967,7 +2976,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2988,7 +2997,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,7 +3026,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3033,7 +3042,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3054,7 +3063,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3066,7 +3075,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3083,11 +3092,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3099,7 +3108,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3116,11 +3125,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3132,7 +3141,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3149,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3165,7 +3174,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3182,11 +3191,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3198,7 +3207,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3215,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3231,7 +3240,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3248,11 +3257,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3264,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,11 +3323,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3330,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3363,7 +3372,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3380,11 +3389,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,11 +3422,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>134</v>
@@ -3429,7 +3438,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3462,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,11 +3488,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3495,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>58</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3512,11 +3521,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,7 +3570,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3578,14 +3587,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3594,7 +3603,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>134</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3677,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,14 +3719,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3776,11 +3785,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3799,7 +3808,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3809,49 +3818,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>236</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>237</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>65</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>34</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>134</v>
       </c>
     </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4853.9350000000004</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>235</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>236</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>237</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4910.5150000000003</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>238</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>239</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>240</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4235,10 +4277,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -332,6 +332,24 @@
     <t>45.5400</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -365,9 +383,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>FLACORT 6MG 20 TABS.</t>
   </si>
   <si>
@@ -494,6 +509,15 @@
     <t>OCTOZINC 25MG 20 CAPS</t>
   </si>
   <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
   </si>
   <si>
@@ -581,9 +605,6 @@
     <t>28.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -725,7 +746,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 7:08 PM</t>
+    <t>Tuesday, 19 August, 2025 7:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2257,7 +2278,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,11 +2288,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2321,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2337,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2333,14 +2354,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>118</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,14 +2387,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2420,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2502,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,11 +2519,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2514,7 +2535,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,11 +2585,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,11 +2651,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2684,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,7 +2700,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2696,11 +2717,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2752,7 +2773,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2769,7 +2790,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2795,11 +2816,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,11 +2882,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2877,7 +2898,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2894,11 +2915,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2910,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2950,7 +2971,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2960,11 +2981,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3042,31 +3063,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3113,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>34</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3115,7 +3136,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3148,24 +3169,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,7 +3195,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3187,15 +3208,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3245,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,11 +3278,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3273,28 +3294,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3313,7 +3334,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3346,7 +3367,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,11 +3377,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,11 +3476,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3471,31 +3492,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,31 +3525,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,28 +3558,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>220</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,14 +3707,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3709,7 +3730,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,14 +3740,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,7 +3756,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3752,14 +3773,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3789,7 +3810,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3801,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3839,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3834,14 +3855,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,49 +3872,148 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4910.5150000000003</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>238</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>26</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>65</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
         <v>239</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>240</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>65</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>241</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>243</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>244</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>65</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>34</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>5011.7749999999996</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>245</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>246</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>247</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4282,10 +4402,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 7:27 PM</t>
+    <t>Tuesday, 19 August, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -155,13 +155,16 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>5:4</t>
+    <t>5:3</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
@@ -308,9 +311,6 @@
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -485,6 +485,18 @@
     <t>63.8550</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -527,9 +539,6 @@
     <t>128.00</t>
   </si>
   <si>
-    <t>15.3600</t>
-  </si>
-  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -659,42 +668,39 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>24:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>35:0</t>
+    <t>34:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -719,12 +725,12 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>كريم ONE للبشره الجافه</t>
   </si>
   <si>
@@ -743,10 +749,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>Tuesday, 19 August, 2025 7:29 PM</t>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>Tuesday, 19 August, 2025 7:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1701,7 +1710,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1710,14 +1719,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1727,11 +1736,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -1743,7 +1752,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1764,7 +1773,7 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>20</v>
@@ -1776,14 +1785,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1797,7 +1806,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1809,14 +1818,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1826,11 +1835,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1842,28 +1851,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1875,14 +1884,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1892,11 +1901,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -1908,14 +1917,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1925,7 +1934,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1941,14 +1950,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1958,11 +1967,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1974,7 +1983,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1991,14 +2000,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2007,7 +2016,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2073,14 +2082,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,11 +2099,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2106,7 +2115,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2123,11 +2132,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2139,7 +2148,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2156,11 +2165,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2193,10 +2202,10 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2245,7 +2254,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2262,7 +2271,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2278,7 +2287,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2486,7 +2495,7 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2618,11 +2627,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2651,7 +2660,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2757,7 +2766,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2872,7 +2881,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,14 +2891,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2898,7 +2907,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2915,11 +2924,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,11 +2957,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2964,14 +2973,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,14 +3023,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3030,14 +3039,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3070,7 +3079,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,14 +3089,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3117,7 +3126,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3169,24 +3178,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3195,7 +3204,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3208,18 +3217,18 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3235,7 +3244,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3268,7 +3277,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3301,13 +3310,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3334,13 +3343,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3367,7 +3376,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3381,7 +3390,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3393,14 +3402,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>101</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3426,14 +3435,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3466,7 +3475,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3492,14 +3501,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3516,7 +3525,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3532,7 +3541,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3551,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,14 +3584,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,28 +3600,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3624,31 +3633,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3657,31 +3666,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3690,31 +3699,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3723,7 +3732,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3736,18 +3745,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3769,18 +3778,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>139</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3796,24 +3805,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3822,31 +3831,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3855,31 +3864,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3895,24 +3904,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3928,13 +3937,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -3942,7 +3951,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3954,66 +3963,99 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>5011.7749999999996</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
         <v>245</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
         <v>246</v>
       </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>66</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>34</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
         <v>247</v>
       </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+      <c t="s" r="Q86" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>5121.4549999999999</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>248</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>249</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>250</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4417,10 +4459,15 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -254,6 +254,15 @@
     <t>564.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -263,6 +272,12 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -641,6 +656,12 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>VITACID C 1GM 12 EFF. TAB.</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -707,6 +728,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -755,7 +779,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 7:40 PM</t>
+    <t>Tuesday, 19 August, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2023,7 +2047,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2033,14 +2057,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2056,7 +2080,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2066,11 +2090,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>53</v>
@@ -2082,14 +2106,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2099,14 +2123,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2115,14 +2139,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2132,14 +2156,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2148,14 +2172,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2188,7 +2212,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2198,14 +2222,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2231,11 +2255,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2264,11 +2288,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>51</v>
@@ -2280,14 +2304,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2297,14 +2321,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2320,7 +2344,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2330,14 +2354,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2346,14 +2370,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2363,11 +2387,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2396,14 +2420,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2412,14 +2436,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2445,14 +2469,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2478,14 +2502,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2495,14 +2519,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2511,14 +2535,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2528,14 +2552,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2544,14 +2568,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2561,14 +2585,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2594,11 +2618,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2610,7 +2634,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2627,11 +2651,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2660,11 +2684,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2693,11 +2717,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2709,14 +2733,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2726,11 +2750,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2742,14 +2766,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2759,14 +2783,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2775,7 +2799,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2792,11 +2816,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2848,7 +2872,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2865,7 +2889,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2881,7 +2905,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2891,14 +2915,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2924,14 +2948,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2973,14 +2997,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2990,11 +3014,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3006,7 +3030,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3023,11 +3047,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3039,7 +3063,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3056,14 +3080,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3072,14 +3096,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3089,14 +3113,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3122,14 +3146,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3145,7 +3169,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3155,14 +3179,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3171,14 +3195,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3188,14 +3212,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>34</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3204,31 +3228,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3244,7 +3268,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3254,14 +3278,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3277,24 +3301,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>85</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3320,11 +3344,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3336,28 +3360,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3369,7 +3393,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3386,11 +3410,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3402,28 +3426,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3442,7 +3466,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3452,11 +3476,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>28</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3468,14 +3492,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3485,11 +3509,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3518,11 +3542,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3534,14 +3558,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>117</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3551,14 +3575,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3584,14 +3608,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3600,7 +3624,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3617,11 +3641,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>28</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3633,31 +3657,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>152</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3679,7 +3703,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3690,7 +3714,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3706,21 +3730,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3732,14 +3756,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3749,14 +3773,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3765,14 +3789,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3782,14 +3806,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3798,14 +3822,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3815,14 +3839,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3852,10 +3876,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3864,14 +3888,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3885,10 +3909,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3897,7 +3921,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3914,14 +3938,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>101</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3937,7 +3961,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3947,11 +3971,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>126</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3963,14 +3987,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3980,14 +4004,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3996,14 +4020,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4013,49 +4037,148 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>5121.4549999999999</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
         <v>248</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>26</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>66</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
         <v>249</v>
       </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>250</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>66</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>251</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>253</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>254</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>66</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>34</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5202.2150000000001</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>256</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>257</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>258</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4464,10 +4587,25 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -437,6 +437,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
@@ -779,7 +788,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:04 PM</t>
+    <t>Tuesday, 19 August, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2707,7 +2716,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2733,14 +2742,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2773,7 +2782,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2783,7 +2792,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2806,7 +2815,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2839,7 +2848,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2856,7 +2865,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2872,7 +2881,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2889,7 +2898,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2915,11 +2924,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2931,14 +2940,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2948,14 +2957,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2971,7 +2980,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -2997,14 +3006,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3021,7 +3030,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3070,7 +3079,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3096,14 +3105,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3113,11 +3122,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3129,14 +3138,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3146,14 +3155,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3169,7 +3178,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3202,7 +3211,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3212,14 +3221,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3228,14 +3237,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3249,7 +3258,7 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3261,14 +3270,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3278,14 +3287,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>96</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3301,24 +3310,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>85</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3327,7 +3336,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3340,18 +3349,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3367,7 +3376,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3400,7 +3409,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3433,13 +3442,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3466,13 +3475,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3499,7 +3508,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3513,7 +3522,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3525,14 +3534,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3558,14 +3567,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3598,7 +3607,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3624,14 +3633,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3641,11 +3650,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3657,14 +3666,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3674,14 +3683,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>130</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3697,7 +3706,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3707,14 +3716,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>144</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3723,14 +3732,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3740,14 +3749,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3756,31 +3765,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3789,14 +3798,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3810,7 +3819,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3822,14 +3831,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3843,10 +3852,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3872,14 +3881,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3888,7 +3897,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3921,7 +3930,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3938,14 +3947,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>207</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3961,7 +3970,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4020,14 +4029,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4053,14 +4062,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4086,14 +4095,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4103,11 +4112,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4126,7 +4135,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4136,49 +4145,82 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>256</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>257</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>66</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>34</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>94</v>
       </c>
     </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5202.2150000000001</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>256</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>257</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>258</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5265.5749999999998</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>259</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>260</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>261</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4602,10 +4644,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -179,6 +179,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
     <t>CEPOREX 1GM 8 TABLETS</t>
   </si>
   <si>
@@ -458,6 +470,12 @@
     <t>36.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -728,7 +746,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -737,15 +755,12 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>21.0000</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>55.00</t>
   </si>
   <si>
@@ -782,13 +797,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>12:0</t>
-  </si>
-  <si>
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:11 PM</t>
+    <t>Tuesday, 19 August, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1792,7 +1804,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1802,14 +1814,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1818,14 +1830,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1835,14 +1847,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1851,14 +1863,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1868,14 +1880,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1884,31 +1896,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1917,31 +1929,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1950,14 +1962,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1971,10 +1983,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2000,11 +2012,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2033,14 +2045,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2049,14 +2061,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2066,14 +2078,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2082,14 +2094,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2099,14 +2111,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2165,14 +2177,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2205,7 +2217,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2221,7 +2233,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2231,11 +2243,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -2247,14 +2259,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2264,11 +2276,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2297,14 +2309,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2313,14 +2325,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2353,7 +2365,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2379,7 +2391,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>115</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2452,7 +2464,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2502,7 +2514,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2535,7 +2547,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2551,7 +2563,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2627,14 +2639,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2643,7 +2655,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2660,11 +2672,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2693,11 +2705,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2858,14 +2870,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2881,7 +2893,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2898,7 +2910,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2947,7 +2959,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3096,7 +3108,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3112,7 +3124,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3122,11 +3134,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3138,7 +3150,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3155,11 +3167,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3171,7 +3183,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3244,7 +3256,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3336,31 +3348,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3386,14 +3398,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3402,31 +3414,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3442,7 +3454,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3475,13 +3487,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3541,13 +3553,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3555,7 +3567,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3584,11 +3596,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3617,11 +3629,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3650,11 +3662,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3683,7 +3695,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3706,7 +3718,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3749,14 +3761,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3782,14 +3794,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3798,31 +3810,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3831,31 +3843,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3871,13 +3883,13 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3885,10 +3897,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3904,24 +3916,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3930,31 +3942,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3963,7 +3975,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3976,18 +3988,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>210</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3996,31 +4008,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4029,31 +4041,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4069,24 +4081,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4095,31 +4107,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4128,31 +4140,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4168,59 +4180,125 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
         <v>258</v>
       </c>
-      <c t="s" r="Q90" s="12">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5265.5749999999998</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>12</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>70</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
         <v>259</v>
       </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>260</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
         <v>261</v>
       </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>245</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>70</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>34</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5422.5749999999998</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>263</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>264</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>265</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4649,10 +4727,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>210.0000</t>
   </si>
   <si>
+    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>231.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -527,6 +536,15 @@
     <t>63.8550</t>
   </si>
   <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -800,7 +818,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:12 PM</t>
+    <t>Tuesday, 19 August, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1672,7 +1690,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1689,7 +1707,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1698,14 +1716,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1715,14 +1733,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1731,14 +1749,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1748,14 +1766,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1764,14 +1782,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1781,14 +1799,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1797,14 +1815,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1863,14 +1881,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1903,7 +1921,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1936,24 +1954,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1962,20 +1980,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1986,7 +2004,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2002,7 +2020,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2012,14 +2030,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2035,7 +2053,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2045,11 +2063,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -2068,7 +2086,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2085,7 +2103,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2101,7 +2119,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2111,14 +2129,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2134,7 +2152,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2167,7 +2185,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2280,7 +2298,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2292,14 +2310,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2309,11 +2327,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2332,7 +2350,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2375,14 +2393,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2415,7 +2433,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2431,7 +2449,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2514,7 +2532,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2530,7 +2548,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2540,14 +2558,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>119</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2589,14 +2607,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2613,7 +2631,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2629,7 +2647,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2655,14 +2673,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2672,14 +2690,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2728,7 +2746,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2761,7 +2779,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2778,7 +2796,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2794,7 +2812,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2820,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2837,11 +2855,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2860,7 +2878,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2870,14 +2888,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2903,14 +2921,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2926,7 +2944,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2959,7 +2977,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2976,7 +2994,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2992,7 +3010,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3009,7 +3027,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3025,7 +3043,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3035,11 +3053,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3091,7 +3109,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3101,11 +3119,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>20</v>
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3134,11 +3152,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3150,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3174,7 +3192,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3190,7 +3208,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3200,11 +3218,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3233,11 +3251,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3249,7 +3267,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3322,7 +3340,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3332,14 +3350,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3414,31 +3432,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3464,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3480,31 +3498,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3520,7 +3538,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3553,13 +3571,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3619,13 +3637,13 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3633,7 +3651,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3662,11 +3680,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3695,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3728,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3761,7 +3779,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3784,7 +3802,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>126</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3860,14 +3878,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3876,31 +3894,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3909,31 +3927,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3949,13 +3967,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -3963,10 +3981,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3982,24 +4000,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>72</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4008,31 +4026,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4041,31 +4059,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>248</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4074,31 +4092,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>251</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4114,24 +4132,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>47</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4140,31 +4158,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4173,31 +4191,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>135</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4206,31 +4224,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>113</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4239,66 +4257,132 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5422.5749999999998</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>263</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>264</v>
       </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>12</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>73</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
         <v>265</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>267</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>251</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>73</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>34</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5763.5749999999998</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>269</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>270</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>271</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4737,10 +4821,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>42.9000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -443,9 +455,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>44.0000</t>
   </si>
   <si>
@@ -455,9 +464,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -557,6 +563,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
     <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
   </si>
   <si>
@@ -728,6 +737,18 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>ZINC ORIGIN 0.2GM/100ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -794,7 +815,7 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>60.0000</t>
+    <t>75.0000</t>
   </si>
   <si>
     <t>كريم ONE للبشره الجافه</t>
@@ -818,7 +839,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:24 PM</t>
+    <t>Tuesday, 19 August, 2025 8:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2067,10 +2088,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2079,14 +2100,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2145,14 +2166,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2195,14 +2216,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,7 +2322,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2317,7 +2338,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2327,11 +2348,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2360,11 +2381,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2376,14 +2397,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2393,14 +2414,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2449,7 +2470,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2475,7 +2496,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2492,14 +2513,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>122</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2548,7 +2569,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,14 +2579,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2574,14 +2595,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2598,7 +2619,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2631,7 +2652,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2647,7 +2668,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2657,14 +2678,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2711,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2739,7 +2760,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2756,11 +2777,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2789,7 +2810,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2812,7 +2833,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2826,10 +2847,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,11 +2909,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,14 +2942,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2944,7 +2965,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2958,10 +2979,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3041,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,7 +3090,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3086,7 +3107,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3109,7 +3130,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,7 +3156,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3168,14 +3189,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3201,14 +3222,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3234,14 +3255,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3251,14 +3272,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,14 +3288,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,11 +3305,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3300,7 +3321,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3317,11 +3338,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3333,7 +3354,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3350,14 +3371,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3437,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3472,7 +3493,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3503,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3498,31 +3519,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3552,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,14 +3569,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3564,31 +3585,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>96</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,11 +3635,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3630,28 +3651,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3663,7 +3684,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3680,11 +3701,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3696,28 +3717,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3729,14 +3750,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,11 +3767,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3762,14 +3783,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,11 +3800,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3795,14 +3816,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,11 +3833,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>27</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3828,14 +3849,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,11 +3866,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3861,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,14 +3899,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3894,14 +3915,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,14 +3932,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,14 +3948,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3944,14 +3965,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,31 +3981,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4000,21 +4021,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4026,28 +4047,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4059,31 +4080,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4092,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,14 +4130,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4142,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,14 +4179,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,11 +4196,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4191,14 +4212,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4208,14 +4229,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4224,7 +4245,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4241,14 +4262,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>113</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4257,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,14 +4295,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4290,14 +4311,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,11 +4328,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4323,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4340,49 +4361,181 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>267</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>47</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>73</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>248</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>268</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5763.5749999999998</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c t="s" r="Q95" s="12">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>269</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>26</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>73</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
         <v>270</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>271</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>12</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>73</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>272</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>273</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>274</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>258</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>73</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>34</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>6010.5749999999998</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>276</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>277</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>278</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4831,10 +4984,30 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -239,13 +239,22 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
     <t>130.00</t>
   </si>
   <si>
-    <t>42.9000</t>
+    <t>85.8000</t>
   </si>
   <si>
     <t>CLEAREST 14 CAPS</t>
@@ -353,10 +362,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>31.6800</t>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>ELICA-M CREAM 30 GRAM</t>
@@ -395,9 +404,6 @@
     <t>144.00</t>
   </si>
   <si>
-    <t>47.5200</t>
-  </si>
-  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -476,6 +482,12 @@
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -545,9 +557,6 @@
     <t>METAPSIN 10 F.C. TABS.</t>
   </si>
   <si>
-    <t>110.00</t>
-  </si>
-  <si>
     <t>110.0000</t>
   </si>
   <si>
@@ -803,9 +812,6 @@
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>قطن 100 جم</t>
   </si>
   <si>
@@ -839,7 +845,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:25 PM</t>
+    <t>Tuesday, 19 August, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2047,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2074,7 +2080,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2084,14 +2090,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2100,14 +2106,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2117,14 +2123,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2140,7 +2146,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2150,11 +2156,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -2173,7 +2179,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2190,7 +2196,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2206,7 +2212,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2216,14 +2222,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2239,7 +2245,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2272,7 +2278,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2282,14 +2288,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2298,14 +2304,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2315,14 +2321,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2331,14 +2337,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2348,14 +2354,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2364,14 +2370,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2385,7 +2391,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2397,14 +2403,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2414,11 +2420,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2437,7 +2443,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,14 +2453,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2470,7 +2476,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2480,14 +2486,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2496,14 +2502,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2520,7 +2526,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2546,14 +2552,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2562,14 +2568,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2579,14 +2585,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2595,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2616,10 +2622,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2628,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,14 +2651,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2661,14 +2667,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2678,14 +2684,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>126</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2694,14 +2700,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2711,14 +2717,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2727,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2744,14 +2750,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>69</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2760,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2777,14 +2783,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2793,7 +2799,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2810,7 +2816,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2833,7 +2839,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2843,11 +2849,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2866,7 +2872,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2880,10 +2886,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2892,14 +2898,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2909,14 +2915,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2925,14 +2931,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2942,11 +2948,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2958,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2991,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,11 +3014,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3024,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3041,14 +3047,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3057,14 +3063,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3074,14 +3080,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3090,7 +3096,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3107,11 +3113,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3123,14 +3129,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,14 +3146,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3156,14 +3162,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3173,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3189,14 +3195,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3206,11 +3212,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3222,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3239,11 +3245,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3255,7 +3261,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3272,14 +3278,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3288,14 +3294,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,14 +3311,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3354,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3371,11 +3377,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3387,7 +3393,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3404,11 +3410,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3420,7 +3426,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3437,14 +3443,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,14 +3459,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,14 +3476,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3486,14 +3492,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,14 +3509,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3519,14 +3525,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3536,14 +3542,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3559,7 +3565,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3569,14 +3575,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3585,31 +3591,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3618,14 +3624,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3635,14 +3641,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3651,31 +3657,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3684,14 +3690,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,11 +3707,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3717,28 +3723,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3750,7 +3756,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3767,11 +3773,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3783,28 +3789,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,11 +3839,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3849,14 +3855,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3866,11 +3872,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3882,14 +3888,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,11 +3905,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>27</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3915,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,11 +3938,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3948,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3965,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3981,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,14 +4004,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>156</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,14 +4037,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,14 +4103,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4120,24 +4126,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4153,24 +4159,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,7 +4185,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4196,14 +4202,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4229,14 +4235,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,14 +4251,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>258</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4278,7 +4284,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>261</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,14 +4350,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>266</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4394,14 +4400,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>156</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>160</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4476,14 +4482,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>258</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4493,49 +4499,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>34</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>273</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>73</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>274</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
         <v>275</v>
       </c>
-      <c t="s" r="Q98" s="12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>6010.5749999999998</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>276</v>
       </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>261</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>73</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>34</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
         <v>277</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c t="s" r="Q100" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>6189.3149999999996</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
         <v>278</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>279</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>280</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5004,10 +5076,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -368,6 +368,9 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -437,6 +440,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLACORT 6MG 20 TABS.</t>
   </si>
   <si>
@@ -572,6 +584,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
     <t>MOVEASY 5 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -635,6 +653,21 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL ADVANCE GEL</t>
   </si>
   <si>
@@ -644,12 +677,6 @@
     <t>SHAAN LIP BALM 5 GM</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -737,54 +764,57 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8387:0</t>
+    <t>8385:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>ZINC ORIGIN 0.2GM/100ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>34:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>حلق</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>112.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.V. VIAL</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>ZINC ORIGIN 0.2GM/100ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>34:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>حلق</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -845,7 +875,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:28 PM</t>
+    <t>Tuesday, 19 August, 2025 8:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2509,7 +2539,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2519,11 +2549,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2535,14 +2565,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2552,14 +2582,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2568,7 +2598,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2585,14 +2615,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2601,14 +2631,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2618,14 +2648,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>129</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2634,14 +2664,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2651,14 +2681,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2667,14 +2697,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2684,14 +2714,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2700,14 +2730,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2717,14 +2747,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2733,14 +2763,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2750,14 +2780,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2766,14 +2796,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,14 +2813,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>35</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2806,7 +2836,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2823,7 +2853,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2839,7 +2869,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2849,14 +2879,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2865,14 +2895,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2882,11 +2912,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2905,7 +2935,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,14 +2945,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2931,14 +2961,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2948,11 +2978,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2971,7 +3001,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +3011,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,11 +3044,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3030,14 +3060,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3077,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3063,14 +3093,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,11 +3110,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3096,14 +3126,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,14 +3143,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3129,14 +3159,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3146,14 +3176,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3162,7 +3192,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3179,11 +3209,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3195,14 +3225,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3212,14 +3242,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,14 +3275,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3261,14 +3291,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,11 +3308,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3294,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,11 +3341,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3327,7 +3357,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3344,14 +3374,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3360,14 +3390,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3384,7 +3414,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3406,7 +3436,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3414,7 +3444,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3426,7 +3456,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3443,14 +3473,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3459,7 +3489,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3476,11 +3506,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3492,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3509,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3525,14 +3555,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3542,14 +3572,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,11 +3605,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3591,14 +3621,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3608,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,7 +3675,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3664,24 +3694,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3697,7 +3727,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3707,11 +3737,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3723,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,14 +3770,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3756,14 +3786,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3773,14 +3803,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3789,31 +3819,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3822,31 +3852,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>99</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3872,11 +3902,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3888,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,11 +3935,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3921,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,11 +3968,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3954,28 +3984,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3987,7 +4017,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4004,11 +4034,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4020,14 +4050,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4037,14 +4067,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4053,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4070,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,14 +4116,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4103,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,14 +4149,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4136,11 +4166,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4152,7 +4182,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4169,11 +4199,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4185,31 +4215,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>175</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4218,31 +4248,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,31 +4281,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4284,31 +4314,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,31 +4347,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>203</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>261</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4350,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4367,14 +4397,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>91</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4383,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,14 +4430,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4416,14 +4446,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4433,14 +4463,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4449,7 +4479,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4466,14 +4496,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>160</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4482,14 +4512,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4499,14 +4529,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4515,14 +4545,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4532,14 +4562,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4548,14 +4578,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>261</v>
+        <v>60</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4565,49 +4595,214 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>277</v>
       </c>
-      <c t="s" r="Q100" s="12">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>278</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>73</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>263</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>279</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>47</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>73</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>260</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>281</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>26</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>73</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>282</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>283</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>12</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>73</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>284</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>286</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>271</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>73</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>34</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>108</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>6189.3149999999996</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>278</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>279</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>280</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6533.6049999999996</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>288</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>289</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>290</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5086,10 +5281,35 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -188,6 +188,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEFIDIME 1 GM VIAL I.M./I.V.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -335,9 +347,6 @@
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>23.00</t>
   </si>
   <si>
@@ -776,7 +785,10 @@
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
-    <t>112.0000</t>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>224.0000</t>
   </si>
   <si>
     <t>XORAXON 1GM I.V. VIAL</t>
@@ -824,58 +836,61 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>صوفى طويل جدا جدا</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>قطن 100 جم</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>كريم ONE للبشره الجافه</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>كريم هيرفود بالمرز انبوبه 50 مل</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>12:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>صوفى طويل جدا جدا</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>قطن 100 جم</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>كريم ONE للبشره الجافه</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>كريم هيرفود بالمرز انبوبه 50 مل</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:47 PM</t>
+    <t>Tuesday, 19 August, 2025 8:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1945,7 +1960,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1955,14 +1970,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1988,14 +2003,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2004,14 +2019,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2021,14 +2036,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2037,31 +2052,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2070,31 +2085,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2103,7 +2118,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2120,14 +2135,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2160,7 +2175,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2190,10 +2205,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2202,14 +2217,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2219,11 +2234,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -2235,14 +2250,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2268,14 +2283,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2285,14 +2300,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2301,14 +2316,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2318,14 +2333,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2334,14 +2349,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2351,14 +2366,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2367,14 +2382,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2424,7 +2439,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2440,7 +2455,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2454,7 +2469,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2483,11 +2498,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2506,7 +2521,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2539,7 +2554,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2549,14 +2564,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2582,11 +2597,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2622,7 +2637,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2704,7 +2719,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2737,7 +2752,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2780,14 +2795,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>130</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2820,7 +2835,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2836,7 +2851,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2869,7 +2884,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>35</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2945,11 +2960,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2961,14 +2976,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2978,11 +2993,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>88</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3034,7 +3049,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3060,7 +3075,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3077,11 +3092,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3110,7 +3125,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3133,7 +3148,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>108</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3199,7 +3214,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3232,7 +3247,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3249,7 +3264,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3265,7 +3280,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3282,7 +3297,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3308,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3423,20 +3438,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3444,10 +3459,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3456,31 +3471,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3562,7 +3577,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3572,11 +3587,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3605,11 +3620,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3661,7 +3676,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,11 +3686,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>20</v>
@@ -3694,7 +3709,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3741,7 +3756,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>34</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3793,7 +3808,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,11 +3818,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>125</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3819,7 +3834,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3836,7 +3851,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3859,24 +3874,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,7 +3900,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3898,18 +3913,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3918,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,11 +3950,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3958,7 +3973,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3991,13 +4006,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4024,13 +4039,13 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
@@ -4057,7 +4072,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4071,7 +4086,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,11 +4115,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,11 +4148,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>27</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4156,7 +4171,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4166,11 +4181,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,11 +4214,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4255,7 +4270,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>139</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>237</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4331,14 +4346,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4347,7 +4362,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4364,11 +4379,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4380,31 +4395,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4413,28 +4428,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>70</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4453,24 +4468,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4479,31 +4494,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,7 +4527,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4525,18 +4540,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>271</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4545,7 +4560,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4558,18 +4573,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>91</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4578,31 +4593,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4611,31 +4626,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>64</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4644,31 +4659,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>47</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>164</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4677,31 +4692,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4710,28 +4725,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4743,66 +4758,99 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>34</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>108</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6533.6049999999996</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>288</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>289</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>290</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>291</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>77</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>34</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6810.6049999999996</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>293</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>294</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>295</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5306,10 +5354,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:48 PM</t>
+    <t>Tuesday, 19 August, 2025 8:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -890,7 +890,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:51 PM</t>
+    <t>Tuesday, 19 August, 2025 8:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -221,78 +221,81 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
     <t>23:0</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>85.8000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -467,6 +470,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
   </si>
   <si>
@@ -653,6 +668,9 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -731,18 +749,9 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -890,7 +899,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:55 PM</t>
+    <t>Tuesday, 19 August, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2043,7 +2052,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2257,7 +2266,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,11 +2276,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2283,7 +2292,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2300,11 +2309,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>56</v>
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2337,7 +2346,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2349,7 +2358,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2366,11 +2375,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>56</v>
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2403,7 +2412,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>56</v>
@@ -2448,7 +2457,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2481,7 +2490,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2498,7 +2507,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2514,7 +2523,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2531,11 +2540,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2547,7 +2556,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2568,10 +2577,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2580,7 +2589,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2601,7 +2610,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,11 +2639,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2646,7 +2655,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>54</v>
@@ -2679,7 +2688,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2700,7 +2709,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2745,7 +2754,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2762,11 +2771,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,11 +2804,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2844,7 +2853,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2877,7 +2886,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2894,11 +2903,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2976,7 +2985,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2993,11 +3002,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,11 +3035,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3042,14 +3051,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3059,14 +3068,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3075,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3092,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>68</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3108,7 +3117,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3125,11 +3134,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3141,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>47</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,11 +3167,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3174,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3207,14 +3216,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3240,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3257,11 +3266,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3273,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3306,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3339,7 +3348,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3356,11 +3365,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3372,14 +3381,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,14 +3398,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3405,7 +3414,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3471,31 +3480,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3504,31 +3513,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3570,7 +3579,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3587,11 +3596,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>155</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,11 +3662,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3686,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,11 +3728,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3789,7 +3798,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,11 +3860,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3867,7 +3876,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3884,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>129</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3900,31 +3909,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,7 +3942,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3946,18 +3955,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3983,11 +3992,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4016,11 +4025,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4032,28 +4041,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4065,28 +4074,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4115,11 +4124,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4148,11 +4157,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>27</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4181,11 +4190,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4197,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4214,11 +4223,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4230,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4247,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4263,14 +4272,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4280,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4303,7 +4312,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4346,14 +4355,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>206</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>124</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4369,7 +4378,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4379,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4395,7 +4404,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4412,11 +4421,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4428,31 +4437,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>182</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4461,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>94</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4482,7 +4491,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4494,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4518,7 +4527,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4534,7 +4543,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4548,10 +4557,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>240</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,7 +4569,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4577,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>275</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,7 +4602,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4610,11 +4619,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>278</v>
@@ -4633,7 +4642,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4647,10 +4656,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4659,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>64</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4676,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4692,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4709,14 +4718,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4742,14 +4751,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4758,14 +4767,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4775,11 +4784,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4798,7 +4807,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4808,49 +4817,82 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>293</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>294</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>77</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>34</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6810.6049999999996</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>293</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>294</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>295</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6891.6049999999996</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>296</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>297</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>298</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5359,10 +5401,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -899,7 +899,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:56 PM</t>
+    <t>Tuesday, 19 August, 2025 8:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>23:0</t>
   </si>
   <si>
     <t>93.0000</t>
@@ -293,9 +293,6 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>23:0</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -473,282 +470,282 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>FOSTINOCORT TOPICAL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>63.3600</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>LACRITEARS EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>LAMIVEX ACNE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>167.5800</t>
+  </si>
+  <si>
+    <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>LIPANTHYL 300MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>193.50</t>
+  </si>
+  <si>
+    <t>63.8550</t>
+  </si>
+  <si>
+    <t>METAPSIN 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>OCTOVENT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>OMEZ 20MG 14 CAPS.</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
+  </si>
+  <si>
+    <t>372.00</t>
+  </si>
+  <si>
+    <t>59.5200</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL ADVANCE GEL</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>SHAAN LIP BALM 5 GM</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>TENSOPLERON 25MG 30 F.C TAB</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
+    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>FOSTINOCORT TOPICAL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>63.3600</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>LACRITEARS EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>LAMIVEX ACNE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>167.5800</t>
-  </si>
-  <si>
-    <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>LIPANTHYL 300MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>193.50</t>
-  </si>
-  <si>
-    <t>63.8550</t>
-  </si>
-  <si>
-    <t>METAPSIN 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>110.0000</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>OCTOVENT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>OCTOZINC 25MG 20 CAPS</t>
-  </si>
-  <si>
-    <t>OMEZ 20MG 14 CAPS.</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 400MG 30 VAGINAL PESSARIES</t>
-  </si>
-  <si>
-    <t>372.00</t>
-  </si>
-  <si>
-    <t>59.5200</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL ADVANCE GEL</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>SHAAN LIP BALM 5 GM</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/850MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>TAVACIN 750MG 5 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>TENSOPLERON 25MG 30 F.C TAB</t>
-  </si>
-  <si>
-    <t>153.00</t>
-  </si>
-  <si>
-    <t>153.0000</t>
-  </si>
-  <si>
-    <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>TREFLUCAN 150MG 1 CAPS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -899,7 +896,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 8:59 PM</t>
+    <t>Tuesday, 19 August, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2266,7 +2263,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2276,11 +2273,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2292,7 +2289,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2309,11 +2306,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>56</v>
@@ -2325,14 +2322,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2346,7 +2343,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2358,7 +2355,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2375,11 +2372,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>56</v>
@@ -2391,14 +2388,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2412,7 +2409,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2424,14 +2421,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,11 +2438,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>56</v>
@@ -2457,7 +2454,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2474,11 +2471,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2490,7 +2487,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2507,7 +2504,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2523,7 +2520,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2540,11 +2537,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2556,7 +2553,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2577,10 +2574,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>122</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2589,7 +2586,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2610,7 +2607,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2622,14 +2619,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,11 +2636,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2655,7 +2652,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2672,11 +2669,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>54</v>
@@ -2688,7 +2685,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2709,7 +2706,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2721,14 +2718,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2738,14 +2735,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2754,7 +2751,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2771,11 +2768,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2787,14 +2784,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,11 +2801,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2820,14 +2817,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2837,14 +2834,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2853,7 +2850,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2870,11 +2867,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>20</v>
@@ -2886,7 +2883,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2903,11 +2900,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2919,14 +2916,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,11 +2933,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2952,7 +2949,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2985,7 +2982,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3002,11 +2999,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3018,7 +3015,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3039,7 +3036,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3051,7 +3048,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3068,7 +3065,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3084,7 +3081,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3101,11 +3098,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3117,7 +3114,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3134,7 +3131,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3150,7 +3147,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3167,11 +3164,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3183,14 +3180,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3204,7 +3201,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3216,7 +3213,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3233,7 +3230,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3249,7 +3246,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3266,11 +3263,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3282,7 +3279,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3299,11 +3296,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3315,7 +3312,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3332,11 +3329,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>56</v>
@@ -3348,7 +3345,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3365,11 +3362,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3381,7 +3378,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3398,11 +3395,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3414,7 +3411,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3431,11 +3428,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>20</v>
@@ -3447,7 +3444,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3468,7 +3465,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3480,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,11 +3494,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3513,7 +3510,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3530,11 +3527,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3546,7 +3543,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3563,11 +3560,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3579,7 +3576,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3596,11 +3593,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3612,7 +3609,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3629,11 +3626,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3645,7 +3642,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3662,11 +3659,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3678,7 +3675,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3695,11 +3692,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3711,7 +3708,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3728,11 +3725,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3744,14 +3741,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,7 +3758,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3777,14 +3774,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3798,7 +3795,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3810,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3831,7 +3828,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3843,14 +3840,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,11 +3857,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>20</v>
@@ -3876,7 +3873,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3893,11 +3890,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3909,7 +3906,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3926,11 +3923,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3942,7 +3939,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3959,11 +3956,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3975,7 +3972,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3992,11 +3989,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4008,7 +4005,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4025,11 +4022,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4041,7 +4038,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4058,11 +4055,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4074,7 +4071,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4091,11 +4088,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4107,7 +4104,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4124,11 +4121,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4140,14 +4137,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,11 +4154,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4173,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4206,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,11 +4220,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4239,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4256,11 +4253,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4272,7 +4269,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4289,11 +4286,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4305,14 +4302,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,11 +4319,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>20</v>
@@ -4338,14 +4335,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,14 +4352,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>154</v>
+        <v>244</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,14 +4368,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4385,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,7 +4401,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4421,11 +4418,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4437,7 +4434,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4470,14 +4467,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,11 +4484,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4503,14 +4500,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,11 +4517,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4536,14 +4533,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4553,11 +4550,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4569,7 +4566,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4586,14 +4583,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>154</v>
+        <v>244</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,7 +4599,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4619,14 +4616,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,7 +4632,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4652,14 +4649,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,7 +4665,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4685,7 +4682,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4701,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,11 +4715,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4734,7 +4731,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4751,14 +4748,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4767,7 +4764,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4784,11 +4781,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4800,7 +4797,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4817,11 +4814,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4833,14 +4830,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4854,7 +4851,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>60</v>
@@ -4868,7 +4865,7 @@
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4876,13 +4873,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>65.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
@@ -3187,7 +3190,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3197,11 +3200,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3213,14 +3216,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3230,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3246,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3263,14 +3266,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3279,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3296,11 +3299,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3312,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3329,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3345,14 +3348,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3378,7 +3381,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3395,11 +3398,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3411,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3428,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3444,7 +3447,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3461,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3477,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3510,31 +3513,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3543,31 +3546,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3583,7 +3586,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,14 +3596,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3609,7 +3612,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3626,11 +3629,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3642,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,11 +3662,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3682,7 +3685,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,11 +3695,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3715,7 +3718,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3725,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3758,11 +3761,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>20</v>
@@ -3774,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3791,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3807,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3828,10 +3831,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3840,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,14 +3860,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3873,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>56</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3890,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>20</v>
@@ -3906,7 +3909,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3923,11 +3926,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>128</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>20</v>
@@ -3939,31 +3942,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3972,7 +3975,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3985,18 +3988,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4012,7 +4015,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4022,11 +4025,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4038,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4055,11 +4058,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4071,28 +4074,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4104,28 +4107,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4154,11 +4157,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>244</v>
+        <v>124</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,11 +4190,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>27</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4203,14 +4206,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4220,11 +4223,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>154</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4243,7 +4246,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,11 +4256,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4269,14 +4272,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,11 +4289,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4302,14 +4305,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4335,14 +4338,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>244</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>124</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,7 +4437,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4451,11 +4454,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4474,24 +4477,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>27</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4517,11 +4520,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>70</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4583,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4599,7 +4602,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4616,14 +4619,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>277</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4632,7 +4635,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4649,14 +4652,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4665,14 +4668,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,14 +4685,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4698,14 +4701,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>64</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,14 +4718,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>270</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4731,14 +4734,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>47</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,14 +4751,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>170</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4764,14 +4767,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4781,14 +4784,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>151</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4797,14 +4800,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4814,11 +4817,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4830,14 +4833,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4847,49 +4850,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>293</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
         <v>294</v>
       </c>
-      <c t="s" r="Q107" s="12">
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>77</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>34</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6891.6049999999996</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>295</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>6936.6049999999996</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>296</v>
       </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
         <v>297</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>298</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5403,10 +5439,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -308,6 +308,18 @@
     <t>564.0000</t>
   </si>
   <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -572,6 +584,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>LIMITLESS MAN MAX 30 TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>LIPANTHYL 300MG 30 CAPSULES</t>
   </si>
   <si>
@@ -641,9 +662,6 @@
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>28.0000</t>
   </si>
   <si>
@@ -662,6 +680,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">OTIX-LIV TOPICAL LOTION </t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -698,6 +722,15 @@
     <t>170.0000</t>
   </si>
   <si>
+    <t>ROYAL ZAD</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>SHAAN LIP BALM 5 GM</t>
   </si>
   <si>
@@ -731,12 +764,6 @@
     <t>TIRATAM 100MG/ML ORAL SOLUTION 120 ML</t>
   </si>
   <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
     <t>TREFLUCAN 150MG 1 CAPS.</t>
   </si>
   <si>
@@ -899,7 +926,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:01 PM</t>
+    <t>Tuesday, 19 August, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2342,14 +2369,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,14 +2402,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2391,14 +2418,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2408,14 +2435,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2424,14 +2451,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2464,7 +2491,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,14 +2501,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,11 +2534,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,11 +2567,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2556,14 +2583,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,14 +2600,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2589,14 +2616,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,14 +2633,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2622,14 +2649,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,11 +2666,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2662,7 +2689,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,14 +2699,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2688,7 +2715,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2705,14 +2732,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2721,14 +2748,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2738,14 +2765,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2754,14 +2781,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,14 +2798,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2787,14 +2814,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2811,7 +2838,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2844,7 +2871,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2860,7 +2887,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2870,14 +2897,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2886,14 +2913,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,11 +2930,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2919,14 +2946,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,14 +2963,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2952,14 +2979,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,14 +2996,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2985,14 +3012,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,14 +3029,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3018,7 +3045,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3035,11 +3062,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>88</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3051,14 +3078,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3068,11 +3095,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3084,14 +3111,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3101,14 +3128,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3117,14 +3144,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,14 +3161,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3150,7 +3177,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3167,11 +3194,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3183,14 +3210,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,11 +3227,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3216,14 +3243,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,11 +3260,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3249,14 +3276,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3266,14 +3293,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>73</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3282,14 +3309,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,14 +3326,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3315,14 +3342,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3332,11 +3359,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3348,14 +3375,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,14 +3392,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3381,14 +3408,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3398,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3414,7 +3441,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3431,11 +3458,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3447,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,14 +3491,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3480,14 +3507,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,11 +3524,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3513,14 +3540,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,11 +3557,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3546,28 +3573,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3579,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,11 +3623,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>20</v>
@@ -3612,7 +3639,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3625,15 +3652,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3645,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3662,14 +3689,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3678,14 +3705,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,11 +3722,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3711,7 +3738,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3728,11 +3755,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3744,7 +3771,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3761,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3777,14 +3804,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3821,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,14 +3837,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3843,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3860,14 +3887,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3876,14 +3903,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3893,14 +3920,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3909,31 +3936,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3969,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,14 +3986,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3982,24 +4009,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>103</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4008,14 +4035,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,14 +4052,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>199</v>
+        <v>132</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4041,14 +4068,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4085,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4074,31 +4101,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>107</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,7 +4134,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4124,11 +4151,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4140,14 +4167,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,11 +4184,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4173,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4190,11 +4217,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4213,7 +4240,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4223,11 +4250,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4239,28 +4266,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>153</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4272,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4289,11 +4316,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4312,7 +4339,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4322,11 +4349,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>150</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4345,7 +4372,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4355,14 +4382,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>27</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4388,14 +4415,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,14 +4431,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4421,14 +4448,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,7 +4464,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4454,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4470,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4487,14 +4514,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>27</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>28</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,20 +4530,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4524,10 +4551,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4536,31 +4563,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>270</v>
+        <v>101</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4576,21 +4603,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>101</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4602,31 +4629,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>27</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>245</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,14 +4679,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>278</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,14 +4695,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>47</v>
+        <v>278</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,14 +4712,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>281</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4701,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,11 +4745,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>82</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4741,7 +4768,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>47</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,14 +4778,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4788,10 +4815,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q105" s="12">
         <v>287</v>
-      </c>
-      <c t="s" r="Q105" s="12">
-        <v>171</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4807,7 +4834,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4821,10 +4848,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4833,14 +4860,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4850,11 +4877,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4883,49 +4910,181 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
         <v>295</v>
       </c>
-      <c t="s" r="Q108" s="12">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>47</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>77</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>276</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>297</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>26</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>77</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>298</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>299</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>12</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>77</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>300</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>302</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>303</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>77</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>34</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>6936.6049999999996</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>296</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>297</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>298</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>7449.6049999999996</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>305</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>306</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>307</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5444,10 +5603,30 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -926,7 +926,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:03 PM</t>
+    <t>Tuesday, 19 August, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -926,7 +926,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:05 PM</t>
+    <t>Tuesday, 19 August, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -62,18 +62,24 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>33.6600</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
   </si>
   <si>
@@ -335,9 +341,6 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>102.0000</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -926,7 +929,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:19 PM</t>
+    <t>Tuesday, 19 August, 2025 9:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1603,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1610,14 +1613,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1633,7 +1636,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1643,14 +1646,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1659,14 +1662,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1676,14 +1679,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1692,14 +1695,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1709,14 +1712,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1725,14 +1728,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1742,14 +1745,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1758,14 +1761,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1775,14 +1778,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1791,14 +1794,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1808,11 +1811,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1824,14 +1827,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1841,14 +1844,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1857,14 +1860,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1874,14 +1877,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1890,14 +1893,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1907,14 +1910,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1923,14 +1926,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1940,14 +1943,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1956,14 +1959,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1973,14 +1976,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1989,14 +1992,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2006,14 +2009,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2022,14 +2025,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2039,14 +2042,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2062,7 +2065,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2072,14 +2075,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2088,14 +2091,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2105,14 +2108,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2121,31 +2124,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2154,31 +2157,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2187,7 +2190,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2204,14 +2207,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2220,14 +2223,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2253,14 +2256,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2270,14 +2273,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2286,14 +2289,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2307,7 +2310,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -2319,14 +2322,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2336,14 +2339,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2352,14 +2355,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2369,14 +2372,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2402,14 +2405,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2418,14 +2421,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2435,14 +2438,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2468,14 +2471,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2484,14 +2487,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2501,14 +2504,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2534,14 +2537,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2616,14 +2619,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2633,14 +2636,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2649,14 +2652,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2666,14 +2669,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2689,7 +2692,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2699,11 +2702,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2765,14 +2768,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2798,14 +2801,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2831,14 +2834,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2864,14 +2867,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2897,14 +2900,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>137</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2930,14 +2933,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2963,14 +2966,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2979,14 +2982,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2996,14 +2999,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3012,14 +3015,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3029,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3052,7 +3055,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3062,14 +3065,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3095,11 +3098,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3111,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3128,11 +3131,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>90</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>89</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3161,14 +3164,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3217,7 +3220,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3227,11 +3230,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3260,11 +3263,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3283,7 +3286,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>28</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3309,14 +3312,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3342,14 +3345,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3359,14 +3362,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3392,11 +3395,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3408,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3425,14 +3428,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3458,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3491,11 +3494,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3524,11 +3527,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3573,7 +3576,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3590,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3606,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3623,14 +3626,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3639,31 +3642,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3672,31 +3675,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3712,7 +3715,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3722,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3738,14 +3741,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3755,11 +3758,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3771,14 +3774,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3788,11 +3791,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3811,7 +3814,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3821,11 +3824,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3844,7 +3847,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3854,14 +3857,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3870,14 +3873,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3887,14 +3890,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3903,14 +3906,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3920,14 +3923,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>34</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3936,28 +3939,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>132</v>
+        <v>36</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3969,31 +3972,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>176</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4002,14 +4005,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4019,14 +4022,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4035,14 +4038,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4052,14 +4055,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4068,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4085,14 +4088,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4101,31 +4104,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4134,31 +4137,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>109</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4167,28 +4170,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4207,7 +4210,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4217,11 +4220,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4233,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4250,11 +4253,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4266,28 +4269,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4299,28 +4302,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4339,7 +4342,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4349,11 +4352,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4365,14 +4368,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>129</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4382,11 +4385,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>27</v>
+        <v>253</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4398,14 +4401,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4415,11 +4418,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4438,7 +4441,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4448,11 +4451,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4464,14 +4467,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4481,11 +4484,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4497,14 +4500,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4514,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4530,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>144</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4547,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>254</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4563,14 +4566,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4580,14 +4583,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>128</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4596,14 +4599,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4613,14 +4616,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4629,7 +4632,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4646,11 +4649,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4669,24 +4672,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4695,28 +4698,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>278</v>
+        <v>72</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4728,31 +4731,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4761,31 +4764,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4794,31 +4797,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4827,31 +4830,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4860,31 +4863,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>291</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4893,31 +4896,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>66</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4926,31 +4929,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>47</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>175</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4959,31 +4962,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>155</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4992,28 +4995,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5025,66 +5028,99 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>303</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
         <v>304</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>7449.6049999999996</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>79</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>36</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>305</v>
       </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c t="s" r="Q113" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>7551.6049999999996</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>306</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
         <v>307</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>308</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5623,10 +5659,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:22 PM</t>
+    <t>Tuesday, 19 August, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -344,7 +344,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>47.8800</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -386,51 +386,54 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
     <t>47.5200</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -839,6 +842,12 @@
     <t>ZINC ORIGIN 0.2GM/100ML SYRUP 120 ML</t>
   </si>
   <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -875,7 +884,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -929,7 +938,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:27 PM</t>
+    <t>Tuesday, 19 August, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2494,7 +2503,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2508,10 +2517,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2659,7 +2668,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2673,10 +2682,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2838,7 +2847,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>138</v>
@@ -2850,7 +2859,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2867,11 +2876,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>18</v>
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2900,11 +2909,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2933,11 +2942,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>138</v>
@@ -2949,7 +2958,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2966,11 +2975,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -2982,7 +2991,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -3015,7 +3024,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3032,11 +3041,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3048,7 +3057,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3081,7 +3090,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3098,11 +3107,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3114,7 +3123,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3135,7 +3144,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3147,7 +3156,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3164,7 +3173,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3180,7 +3189,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3197,11 +3206,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>18</v>
@@ -3213,7 +3222,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3246,7 +3255,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3267,7 +3276,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3279,7 +3288,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3296,11 +3305,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3333,7 +3342,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3345,7 +3354,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3362,7 +3371,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3378,7 +3387,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3411,7 +3420,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3444,7 +3453,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>58</v>
@@ -3477,7 +3486,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3494,11 +3503,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3510,7 +3519,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3527,11 +3536,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3543,7 +3552,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3560,11 +3569,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3576,7 +3585,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3593,11 +3602,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>18</v>
@@ -3609,7 +3618,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3630,7 +3639,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,11 +3668,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>18</v>
@@ -3675,7 +3684,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3692,11 +3701,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3708,7 +3717,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3725,11 +3734,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3741,7 +3750,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3758,11 +3767,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3774,7 +3783,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3791,11 +3800,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3807,7 +3816,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3824,11 +3833,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3840,7 +3849,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3873,7 +3882,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3894,7 +3903,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>18</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3923,7 +3932,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3960,7 +3969,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3993,7 +4002,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4005,7 +4014,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4026,7 +4035,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,7 +4064,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -4071,7 +4080,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4092,7 +4101,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>18</v>
@@ -4104,7 +4113,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4137,7 +4146,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4158,7 +4167,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4170,7 +4179,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4203,7 +4212,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4220,11 +4229,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4236,7 +4245,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4253,11 +4262,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4269,7 +4278,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4302,7 +4311,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4335,7 +4344,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4352,11 +4361,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4368,7 +4377,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4385,11 +4394,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4451,11 +4460,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,11 +4493,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4500,7 +4509,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4517,11 +4526,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,11 +4559,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>18</v>
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4620,7 +4629,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>129</v>
@@ -4632,7 +4641,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4653,7 +4662,7 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4665,7 +4674,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,14 +4724,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>191</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4731,14 +4740,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>72</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4752,7 +4761,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4788,7 +4797,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4804,7 +4813,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4818,10 +4827,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>218</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>255</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,7 +4839,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,7 +4872,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4880,11 +4889,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>291</v>
@@ -4903,7 +4912,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4917,10 +4926,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4929,14 +4938,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,14 +4955,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>281</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5045,11 +5054,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5068,7 +5077,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5078,49 +5087,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>306</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>307</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>79</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>36</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>7551.6049999999996</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>306</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>307</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>308</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>7695.6049999999996</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>309</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>310</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>311</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5664,10 +5706,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -938,7 +938,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:33 PM</t>
+    <t>Tuesday, 19 August, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -518,6 +518,15 @@
     <t>22.00</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/500MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>GLIPTUS PLUS 50/1000MG 30 TABLETS</t>
   </si>
   <si>
@@ -605,6 +614,15 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>MELLITOFIX 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>204.0000</t>
+  </si>
+  <si>
     <t>MELLITOFIX MET 12.5/500 MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -938,7 +956,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:34 PM</t>
+    <t>Tuesday, 19 August, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3196,7 +3214,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3213,7 +3231,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3229,7 +3247,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3255,7 +3273,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3272,11 +3290,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3305,11 +3323,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3338,11 +3356,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3361,7 +3379,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3371,14 +3389,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3427,7 +3445,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3460,7 +3478,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3477,7 +3495,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3493,7 +3511,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3510,7 +3528,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3526,7 +3544,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3559,7 +3577,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,11 +3587,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3602,14 +3620,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3625,7 +3643,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,11 +3653,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>83</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3691,21 +3709,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3724,7 +3742,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3734,11 +3752,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>18</v>
@@ -3750,7 +3768,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3763,15 +3781,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3783,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3823,7 +3841,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3833,11 +3851,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3849,7 +3867,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3866,11 +3884,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3882,7 +3900,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3899,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3932,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,14 +3966,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3981,31 +3999,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4035,10 +4053,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4047,31 +4065,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4113,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,11 +4148,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4146,31 +4164,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4179,31 +4197,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4212,7 +4230,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4225,18 +4243,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,28 +4263,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,11 +4313,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4318,13 +4336,13 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4361,11 +4379,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4377,28 +4395,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4410,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,11 +4445,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4443,14 +4461,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>256</v>
+        <v>129</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,11 +4478,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4476,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,11 +4511,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4509,14 +4527,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4526,11 +4544,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4549,7 +4567,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,14 +4593,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,14 +4610,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>145</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4625,14 +4643,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4641,14 +4659,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4658,14 +4676,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>103</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>278</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4691,14 +4709,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4707,28 +4725,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>205</v>
+        <v>103</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4740,31 +4758,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4773,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>49</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4790,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4827,10 +4845,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4839,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>49</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4860,10 +4878,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4872,14 +4890,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4889,14 +4907,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>178</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>291</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,7 +4923,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4922,14 +4940,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4938,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,14 +4973,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4971,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4988,14 +5006,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>284</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5004,14 +5022,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5021,14 +5039,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>177</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5037,14 +5055,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,14 +5072,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5070,14 +5088,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5087,14 +5105,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>180</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5103,14 +5121,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5120,49 +5138,115 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q114" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>309</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>12</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>79</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>310</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>312</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>313</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>79</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>36</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q116" s="12">
         <v>62</v>
       </c>
     </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>7695.6049999999996</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>309</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>310</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>311</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>8067.6049999999996</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>315</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>316</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>317</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5711,10 +5795,20 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>ANTODINE 20MG 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>19.8000</t>
+  </si>
+  <si>
     <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -182,6 +191,15 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -227,78 +245,81 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
+    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLARITINE 10MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
     <t>23:0</t>
   </si>
   <si>
-    <t>93.0000</t>
-  </si>
-  <si>
-    <t>CETAL COLD &amp; FLU 20 CAPLETS</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CLARITINE 10MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>85.8000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -341,6 +362,12 @@
     <t>85.00</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -467,6 +494,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -488,6 +524,9 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -509,9 +548,6 @@
     <t>FUSI 2% CREAM 15 GM</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -560,9 +596,6 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>LACRITEARS EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -599,6 +632,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LIMITLESS MAN MAX 30 TABS</t>
   </si>
   <si>
@@ -767,6 +806,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>TAMSULIN 0.4MG 28 CAPS</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
@@ -797,9 +845,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -914,6 +959,9 @@
     <t>11:0</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
     <t>صوفى طويل جدا جدا</t>
   </si>
   <si>
@@ -956,7 +1004,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:35 PM</t>
+    <t>Tuesday, 19 August, 2025 9:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1828,7 +1876,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1845,7 +1893,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1861,7 +1909,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1894,7 +1942,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1911,7 +1959,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1920,14 +1968,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1937,14 +1985,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1953,14 +2001,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1970,14 +2018,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1986,14 +2034,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2003,14 +2051,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2019,14 +2067,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2036,14 +2084,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2052,14 +2100,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2069,14 +2117,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2085,14 +2133,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2102,14 +2150,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2135,11 +2183,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>28</v>
@@ -2151,14 +2199,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2168,7 +2216,7 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
@@ -2197,18 +2245,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2217,14 +2265,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2234,11 +2282,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -2250,20 +2298,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2274,7 +2322,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2290,7 +2338,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2300,11 +2348,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -2316,14 +2364,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,14 +2381,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2349,14 +2397,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2373,7 +2421,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2389,7 +2437,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2399,14 +2447,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2439,7 +2487,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2455,7 +2503,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,14 +2513,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2488,7 +2536,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2498,14 +2546,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2514,14 +2562,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2531,14 +2579,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2547,14 +2595,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2564,14 +2612,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2580,14 +2628,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,7 +2645,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2620,7 +2668,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2630,14 +2678,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2653,7 +2701,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2711,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,14 +2727,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2696,14 +2744,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2712,7 +2760,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2729,11 +2777,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2745,14 +2793,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2762,11 +2810,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2778,14 +2826,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,14 +2843,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>57</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>56</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2811,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2832,10 +2880,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2868,7 +2916,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2884,7 +2932,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2901,7 +2949,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2917,7 +2965,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2927,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2943,14 +2991,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2960,14 +3008,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2976,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2993,11 +3041,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>18</v>
@@ -3009,14 +3057,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,14 +3074,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3042,14 +3090,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3066,7 +3114,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3082,7 +3130,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,14 +3140,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3108,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3125,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3141,14 +3189,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,14 +3206,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,14 +3222,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3191,11 +3239,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3207,14 +3255,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3224,14 +3272,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3240,14 +3288,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3257,14 +3305,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3273,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3290,11 +3338,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3306,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,11 +3371,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3339,14 +3387,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,11 +3404,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3372,14 +3420,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3405,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,14 +3470,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3438,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3471,14 +3519,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3504,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3569,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,14 +3585,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,14 +3602,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>39</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3570,14 +3618,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3603,14 +3651,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,7 +3668,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3643,7 +3691,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3660,7 +3708,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3676,7 +3724,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3693,7 +3741,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3709,7 +3757,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,14 +3767,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3742,7 +3790,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,14 +3800,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,28 +3816,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3801,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,14 +3866,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3834,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3851,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,7 +3932,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3907,7 +3955,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3933,28 +3981,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3966,7 +4014,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3983,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>18</v>
@@ -3999,14 +4047,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,14 +4064,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>55</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4032,14 +4080,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>180</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,11 +4097,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4065,28 +4113,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4098,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,14 +4163,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4131,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>110</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4164,14 +4212,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,11 +4229,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4197,14 +4245,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>58</v>
+        <v>192</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,31 +4278,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,31 +4311,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4303,7 +4351,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,14 +4361,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4329,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4394,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4427,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,31 +4443,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4435,21 +4483,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4461,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,11 +4526,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>225</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4494,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,11 +4559,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4527,14 +4575,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4544,14 +4592,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4560,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4577,11 +4625,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4593,28 +4641,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4626,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,14 +4691,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>138</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4676,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>262</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4699,7 +4747,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>278</v>
+        <v>171</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4709,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>129</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4758,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,11 +4823,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>29</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>30</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4798,17 +4846,17 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4831,13 +4879,13 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4845,10 +4893,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4857,31 +4905,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4890,31 +4938,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>72</v>
+        <v>293</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4923,31 +4971,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>262</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4956,31 +5004,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>297</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4996,24 +5044,24 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>224</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5022,31 +5070,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,28 +5103,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5088,31 +5136,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>180</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5121,31 +5169,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5154,31 +5202,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>312</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5187,66 +5235,297 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>313</v>
+        <v>52</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>62</v>
+        <v>315</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>8067.6049999999996</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>315</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>316</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>102</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>85</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>304</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
         <v>317</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>72</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>85</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>318</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>319</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>320</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>85</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>304</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>305</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>321</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>52</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>85</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>301</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>323</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>28</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>85</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>324</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>325</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>12</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>85</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>326</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>327</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>328</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>329</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>85</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>36</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>330</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>8336.0849999999991</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>331</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>332</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>333</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5805,10 +6084,45 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -449,6 +449,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -818,12 +827,6 @@
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
     <t>TENSOPLERON 25MG 30 F.C TAB</t>
   </si>
   <si>
@@ -1004,7 +1007,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:41 PM</t>
+    <t>Tuesday, 19 August, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2998,7 +3001,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3008,14 +3011,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3024,14 +3027,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3048,7 +3051,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3064,7 +3067,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3074,14 +3077,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3107,14 +3110,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>147</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3140,14 +3143,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3163,7 +3166,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3173,7 +3176,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>36</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3196,7 +3199,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3229,7 +3232,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3239,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3255,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3272,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,14 +3291,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3305,14 +3308,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3338,11 +3341,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3354,14 +3357,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3371,11 +3374,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3387,14 +3390,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3404,11 +3407,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3427,7 +3430,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3444,7 +3447,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3460,7 +3463,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3470,14 +3473,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3486,7 +3489,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3519,14 +3522,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3536,11 +3539,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3552,14 +3555,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3592,7 +3595,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3602,14 +3605,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3635,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3658,7 +3661,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3691,7 +3694,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3708,7 +3711,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3724,7 +3727,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3741,7 +3744,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3757,7 +3760,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>192</v>
+        <v>52</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3767,14 +3770,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,14 +3786,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3800,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>57</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3823,7 +3826,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3833,11 +3836,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3849,14 +3852,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3866,7 +3869,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3889,7 +3892,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3906,7 +3909,7 @@
         <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3932,14 +3935,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3965,14 +3968,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>89</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3981,20 +3984,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4002,10 +4005,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4014,31 +4017,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4047,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4064,14 +4067,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4120,7 +4123,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4130,11 +4133,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4146,14 +4149,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4163,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4179,14 +4182,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4196,14 +4199,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4229,11 +4232,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>110</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>18</v>
@@ -4252,7 +4255,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4262,14 +4265,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4278,28 +4281,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4311,31 +4314,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4361,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4384,7 +4387,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4394,11 +4397,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4410,7 +4413,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4427,7 +4430,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>142</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4450,24 +4453,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4476,7 +4479,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4493,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4522,15 +4525,15 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4542,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4559,11 +4562,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4582,7 +4585,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4599,7 +4602,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4615,7 +4618,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4632,7 +4635,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4648,21 +4651,21 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>147</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4674,28 +4677,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4714,7 +4717,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4724,11 +4727,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4740,14 +4743,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4757,11 +4760,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>30</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4780,7 +4783,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4790,11 +4793,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4813,7 +4816,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4823,11 +4826,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4839,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4856,11 +4859,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4872,14 +4875,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4889,14 +4892,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,14 +4908,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>289</v>
+        <v>157</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4922,14 +4925,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>171</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4955,14 +4958,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,14 +4974,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4992,10 +4995,10 @@
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,7 +5007,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5021,11 +5024,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5044,21 +5047,21 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5070,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5087,14 +5090,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>102</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5120,11 +5123,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5136,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>102</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5153,14 +5156,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5186,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>171</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,7 +5205,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5219,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>312</v>
+        <v>174</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,7 +5238,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5252,14 +5255,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,14 +5271,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,14 +5288,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>316</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5308,7 +5311,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5321,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5337,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5354,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,14 +5387,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5400,14 +5403,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,14 +5420,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5433,14 +5436,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5450,11 +5453,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>327</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5466,14 +5469,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>329</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5483,49 +5486,82 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>36</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>329</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
         <v>330</v>
       </c>
-      <c t="s" r="Q123" s="12">
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>85</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>36</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q124" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>8336.0849999999991</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>331</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>8432.0849999999991</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
         <v>332</v>
       </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
         <v>333</v>
       </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>334</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6119,10 +6155,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -1007,7 +1007,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:47 PM</t>
+    <t>Tuesday, 19 August, 2025 9:51 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -365,198 +365,207 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>DIACALDERM TOPICAL OINT. 20 GM</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>DIMICAP FACIAL WASH 250 ML</t>
+  </si>
+  <si>
+    <t>194.00</t>
+  </si>
+  <si>
+    <t>194.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>95.5200</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>45.5400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>EXAMIDE 20 MG 30TABS</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>FARCOVIT B12 30 CAPS.</t>
+  </si>
+  <si>
+    <t>4:2</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:7</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLACORT 6MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
+  </si>
+  <si>
+    <t>FOSTINOCORT TOPICAL CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>44.0000</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>47.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>DIMICAP FACIAL WASH 250 ML</t>
-  </si>
-  <si>
-    <t>194.00</t>
-  </si>
-  <si>
-    <t>194.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>4:3</t>
-  </si>
-  <si>
-    <t>95.5200</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>45.5400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>EXAMIDE 20 MG 30TABS</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>53.0000</t>
-  </si>
-  <si>
-    <t>FARCOVIT B12 30 CAPS.</t>
-  </si>
-  <si>
-    <t>4:2</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:7</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLACORT 6MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLUB 20MG/ML SUSPENSION 30 ML</t>
-  </si>
-  <si>
-    <t>FOSTINOCORT TOPICAL CREAM 20 GM</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 15 GM</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -731,6 +740,9 @@
     <t>OCTOZINC 25MG 20 CAPS</t>
   </si>
   <si>
+    <t>OCUSEELLERGE 0.05% EYE DROPS 5 ML</t>
+  </si>
+  <si>
     <t>OMEZ 20MG 14 CAPS.</t>
   </si>
   <si>
@@ -746,6 +758,12 @@
     <t>128.00</t>
   </si>
   <si>
+    <t>OPTIDEX -T EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -761,9 +779,6 @@
     <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -1007,7 +1022,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:51 PM</t>
+    <t>Tuesday, 19 August, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2638,7 +2653,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2655,7 +2670,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2737,7 +2752,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2751,7 +2766,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2763,14 +2778,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2780,11 +2795,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2803,7 +2818,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2817,7 +2832,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2829,14 +2844,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2912,11 +2927,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2961,7 +2976,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3001,7 +3016,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3011,14 +3026,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>33</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3044,14 +3059,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>150</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3209,11 +3224,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>18</v>
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3242,11 +3257,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>18</v>
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3357,7 +3372,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3374,11 +3389,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3390,14 +3405,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3407,11 +3422,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>96</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3440,11 +3455,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3463,7 +3478,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3480,7 +3495,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3496,7 +3511,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3506,14 +3521,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3522,7 +3537,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3539,11 +3554,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3555,14 +3570,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3572,11 +3587,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3605,11 +3620,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3628,7 +3643,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3654,14 +3669,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3694,7 +3709,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3727,7 +3742,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3744,7 +3759,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3760,7 +3775,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3777,7 +3792,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3793,7 +3808,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3803,14 +3818,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3859,7 +3874,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3869,11 +3884,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3885,14 +3900,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3902,7 +3917,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3925,7 +3940,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3942,7 +3957,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3968,14 +3983,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,14 +4016,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>89</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4017,20 +4032,20 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4038,10 +4053,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,31 +4065,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4083,14 +4098,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,14 +4115,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>39</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4156,7 +4171,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4166,11 +4181,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,11 +4214,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,14 +4247,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>110</v>
+        <v>211</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4248,14 +4263,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4265,14 +4280,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,14 +4313,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4314,31 +4329,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4354,7 +4369,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,14 +4379,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4387,7 +4402,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>127</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4413,31 +4428,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4446,14 +4461,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4478,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4479,31 +4494,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>52</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,31 +4527,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>144</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,14 +4577,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4578,31 +4593,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>116</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,31 +4626,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,11 +4676,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>147</v>
+        <v>233</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4677,28 +4692,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4742,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4750,7 +4765,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,11 +4775,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>149</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4776,28 +4791,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>30</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,11 +4841,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4863,7 +4878,7 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4875,14 +4890,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4892,11 +4907,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>285</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4908,14 +4923,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4925,14 +4940,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,14 +4956,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4958,14 +4973,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>174</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,14 +5006,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>138</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,14 +5039,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>110</v>
+        <v>292</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,14 +5055,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5057,14 +5072,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,31 +5088,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>52</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
         <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5113,24 +5128,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>110</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5146,24 +5161,24 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,11 +5204,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5205,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,14 +5237,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>174</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5238,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,14 +5270,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>313</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5271,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,14 +5303,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>316</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5304,14 +5319,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,14 +5336,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5337,14 +5352,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5354,14 +5369,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5370,14 +5385,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>52</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,14 +5402,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>306</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>321</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5410,7 +5425,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5420,14 +5435,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>195</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5436,14 +5451,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5453,11 +5468,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5469,14 +5484,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5486,14 +5501,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5502,14 +5517,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>330</v>
+        <v>52</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5519,49 +5534,148 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>329</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>28</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>85</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>330</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
         <v>331</v>
       </c>
-      <c t="s" r="Q124" s="12">
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>12</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>85</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>332</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>333</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>334</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>335</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>85</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>36</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q127" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>8432.0849999999991</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>332</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>333</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>334</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>8642.0849999999991</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>337</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>338</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>339</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6160,10 +6274,25 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -200,6 +200,18 @@
     <t>83.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">CALDIN CK  TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>158.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -266,9 +278,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>564.0000</t>
   </si>
   <si>
+    <t>D.DEP 10.000 I.U. 30 CAPS</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
   </si>
   <si>
@@ -707,6 +725,9 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -1022,7 +1043,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:55 PM</t>
+    <t>Tuesday, 19 August, 2025 9:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2125,13 +2146,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2175,7 +2196,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2224,7 +2245,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2250,14 +2271,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2300,14 +2321,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2316,31 +2337,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2349,20 +2370,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2373,7 +2394,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2406,7 +2427,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2422,7 +2443,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2432,14 +2453,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2502,7 +2523,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2538,7 +2559,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2554,7 +2575,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2597,11 +2618,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2634,10 +2655,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2646,14 +2667,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2663,14 +2684,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2679,14 +2700,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2752,7 +2773,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2785,7 +2806,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2828,11 +2849,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2861,11 +2882,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2917,7 +2938,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2927,11 +2948,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2943,14 +2964,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2960,14 +2981,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2993,14 +3014,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3026,14 +3047,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3042,14 +3063,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3059,14 +3080,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3174,14 +3195,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>152</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3224,14 +3245,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3264,7 +3285,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3280,7 +3301,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3290,7 +3311,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3313,7 +3334,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3389,11 +3410,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3455,11 +3476,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3488,11 +3509,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3544,7 +3565,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3554,11 +3575,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3620,11 +3641,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>52</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3653,11 +3674,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3669,14 +3690,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3686,14 +3707,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3702,14 +3723,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3719,11 +3740,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3735,14 +3756,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3752,14 +3773,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3775,7 +3796,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3792,7 +3813,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3841,7 +3862,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>198</v>
+        <v>32</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3851,14 +3872,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3867,14 +3888,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3884,11 +3905,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3900,14 +3921,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3917,14 +3938,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>57</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3933,14 +3954,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3950,11 +3971,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3966,14 +3987,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3983,14 +4004,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4006,7 +4027,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4016,11 +4037,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -4032,14 +4053,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4072,21 +4093,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4105,7 +4126,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4115,11 +4136,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4131,14 +4152,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4148,14 +4169,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4164,7 +4185,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4177,15 +4198,15 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -4214,14 +4235,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4247,11 +4268,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4263,7 +4284,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4280,11 +4301,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4296,7 +4317,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4313,14 +4334,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4329,14 +4350,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4346,14 +4367,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4362,14 +4383,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4379,11 +4400,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4402,7 +4423,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4412,14 +4433,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4435,24 +4456,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>198</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4461,14 +4482,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4478,14 +4499,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4494,14 +4515,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>204</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4511,14 +4532,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4527,31 +4548,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4560,14 +4581,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4577,14 +4598,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4593,31 +4614,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4633,24 +4654,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,14 +4680,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4697,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>171</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,31 +4713,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>122</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4732,13 +4753,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4749,7 +4770,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4765,7 +4786,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,11 +4796,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4798,13 +4819,13 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
@@ -4831,7 +4852,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,14 +4862,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,14 +4878,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,11 +4895,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>155</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4890,28 +4911,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>30</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4923,14 +4944,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4940,11 +4961,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4956,14 +4977,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>286</v>
+        <v>146</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,11 +4994,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4989,14 +5010,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5006,11 +5027,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5029,7 +5050,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,14 +5060,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>292</v>
+        <v>183</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5076,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5093,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>176</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,14 +5109,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5126,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>140</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,14 +5142,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5138,14 +5159,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>110</v>
+        <v>299</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,14 +5175,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5171,14 +5192,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,31 +5208,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>52</v>
+        <v>306</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,31 +5241,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5253,31 +5274,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>311</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5286,28 +5307,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>313</v>
+        <v>236</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5319,31 +5340,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>176</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5352,31 +5373,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5392,13 +5413,13 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
@@ -5406,10 +5427,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>321</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5425,24 +5446,24 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>311</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>182</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5451,31 +5472,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5484,31 +5505,31 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>326</v>
+        <v>52</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>311</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5517,31 +5538,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>198</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,28 +5571,28 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>12</v>
@@ -5583,31 +5604,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5623,59 +5644,158 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
+        <v>335</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
         <v>336</v>
       </c>
-      <c t="s" r="Q127" s="12">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" ht="24.75" customHeight="1">
-      <c r="P128" s="13">
-        <v>8642.0849999999991</v>
-      </c>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" ht="16.5" customHeight="1">
-      <c t="s" r="A129" s="14">
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>28</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>64</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
         <v>337</v>
       </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c t="s" r="G129" s="15">
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
         <v>338</v>
       </c>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
-      <c r="J129" s="16"/>
-      <c t="s" r="K129" s="17">
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>12</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>64</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
         <v>339</v>
       </c>
-      <c r="L129" s="17"/>
-      <c r="M129" s="17"/>
-      <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
-      <c r="P129" s="17"/>
-      <c r="Q129" s="17"/>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>340</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>341</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>342</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>64</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>36</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>343</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>8847.0849999999991</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>344</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>345</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>346</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="617">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6289,10 +6409,25 @@
     <mergeCell ref="H127:K127"/>
     <mergeCell ref="L127:M127"/>
     <mergeCell ref="N127:O127"/>
-    <mergeCell ref="P128:Q128"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="G129:I129"/>
-    <mergeCell ref="K129:Q129"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -458,6 +458,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>ENRICH ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -659,6 +665,15 @@
     <t>167.5800</t>
   </si>
   <si>
+    <t>L-CARNITINE 300MG/ML SYRUP 30ML</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>LEVCET 2.5MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -965,9 +980,6 @@
     <t>20.00</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -1028,12 +1040,6 @@
     <t>كريم هيرفود بالمرز انبوبه 50 مل</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -1043,7 +1049,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:56 PM</t>
+    <t>Tuesday, 19 August, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3070,7 +3076,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3080,14 +3086,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3096,7 +3102,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3113,14 +3119,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3136,7 +3142,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3146,14 +3152,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3162,14 +3168,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3179,14 +3185,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3212,14 +3218,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3228,14 +3234,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3245,14 +3251,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3278,14 +3284,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>158</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3344,11 +3350,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>18</v>
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3426,14 +3432,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3476,14 +3482,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3492,7 +3498,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3509,7 +3515,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3532,7 +3538,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3542,11 +3548,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3565,7 +3571,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3579,7 +3585,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3608,14 +3614,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3624,14 +3630,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3657,7 +3663,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3674,11 +3680,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3697,7 +3703,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3707,11 +3713,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3723,14 +3729,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3740,11 +3746,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3773,14 +3779,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3789,14 +3795,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3806,14 +3812,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3839,11 +3845,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3872,14 +3878,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3888,14 +3894,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3905,14 +3911,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3921,14 +3927,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3938,14 +3944,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3961,7 +3967,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3994,7 +4000,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>206</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4004,14 +4010,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>57</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4027,7 +4033,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4060,7 +4066,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4070,14 +4076,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4086,14 +4092,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4103,7 +4109,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>92</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4126,7 +4132,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4136,11 +4142,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -4152,14 +4158,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4169,14 +4175,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>180</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4192,24 +4198,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4218,14 +4224,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4235,11 +4241,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>18</v>
@@ -4251,7 +4257,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4264,15 +4270,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4284,14 +4290,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4301,14 +4307,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4317,14 +4323,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4334,11 +4340,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4350,7 +4356,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4367,11 +4373,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4383,14 +4389,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4400,11 +4406,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4433,14 +4439,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4449,14 +4455,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>52</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4466,14 +4472,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4499,14 +4505,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4522,7 +4528,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4532,14 +4538,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4548,28 +4554,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4581,14 +4587,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4602,10 +4608,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4614,31 +4620,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>206</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4647,14 +4653,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4664,14 +4670,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4687,7 +4693,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4697,11 +4703,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>18</v>
@@ -4720,24 +4726,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4753,13 +4759,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4770,7 +4776,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4792,18 +4798,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4812,28 +4818,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4845,14 +4851,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4862,14 +4868,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4878,14 +4884,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4895,11 +4901,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>155</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>156</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4911,31 +4917,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4944,7 +4950,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4961,11 +4967,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>275</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4977,28 +4983,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -5010,14 +5016,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5027,11 +5033,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>30</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5043,14 +5049,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5060,11 +5066,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5076,14 +5082,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>293</v>
+        <v>184</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5093,11 +5099,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5116,7 +5122,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5126,11 +5132,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5142,14 +5148,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>165</v>
+        <v>298</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5166,7 +5172,7 @@
         <v>300</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5182,7 +5188,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5192,14 +5198,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5208,14 +5214,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>306</v>
+        <v>167</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5225,14 +5231,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>116</v>
+        <v>304</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5241,14 +5247,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5258,14 +5264,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5281,7 +5287,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5291,14 +5297,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>30</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5307,28 +5313,28 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>236</v>
+        <v>116</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5340,31 +5346,31 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>314</v>
+        <v>29</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>218</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5373,14 +5379,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5390,14 +5396,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>241</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5406,7 +5412,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5423,14 +5429,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>321</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5439,14 +5445,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>52</v>
+        <v>321</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5456,14 +5462,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5472,14 +5478,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5489,14 +5495,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>205</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>325</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5526,10 +5532,10 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>328</v>
+        <v>184</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5538,14 +5544,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5555,14 +5561,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>318</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>329</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5578,7 +5584,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5592,10 +5598,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5604,14 +5610,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>333</v>
+        <v>105</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5621,11 +5627,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>318</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5644,7 +5650,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5654,14 +5660,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5677,7 +5683,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>28</v>
+        <v>337</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5687,14 +5693,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5710,7 +5716,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5720,14 +5726,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5736,14 +5742,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>342</v>
+        <v>28</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5753,49 +5759,115 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>342</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>12</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>64</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>219</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>343</v>
       </c>
-      <c t="s" r="Q130" s="12">
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>344</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>64</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>36</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>345</v>
+      </c>
+      <c t="s" r="Q132" s="12">
         <v>72</v>
       </c>
     </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>8847.0849999999991</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>344</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>345</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>8957.0849999999991</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
         <v>346</v>
       </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>347</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>348</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6424,10 +6496,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -1049,7 +1049,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:58 PM</t>
+    <t>Tuesday, 19 August, 2025 9:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-19_00-00.xlsx
+++ b/DaySale_2025-08-19_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>19.8000</t>
   </si>
   <si>
+    <t>ATOR 10MG 7 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>BACTICLOR 125MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>73.00</t>
   </si>
   <si>
@@ -284,6 +293,18 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIDOPHAGE 500MG 10 TAB</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
     <t>CLARITINE 10MG 20 TAB.</t>
   </si>
   <si>
@@ -500,6 +521,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>EXAMIDE 10 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
     <t>EXAMIDE 20 MG 30TABS</t>
   </si>
   <si>
@@ -515,12 +545,6 @@
     <t>4:2</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -905,9 +929,6 @@
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
@@ -1049,7 +1070,7 @@
     <t>144.0000</t>
   </si>
   <si>
-    <t>Tuesday, 19 August, 2025 9:59 PM</t>
+    <t>Tuesday, 19 August, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1954,7 +1975,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1964,11 +1985,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>12</v>
@@ -1980,14 +2001,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1997,11 +2018,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -2013,14 +2034,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -2030,14 +2051,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2053,7 +2074,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>54</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2086,7 +2107,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2096,14 +2117,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>62</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2152,24 +2173,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2178,28 +2199,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -2211,14 +2232,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2228,14 +2249,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2261,11 +2282,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>28</v>
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2294,14 +2315,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2310,14 +2331,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2350,7 +2371,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2383,24 +2404,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2409,20 +2430,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2433,7 +2454,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2449,7 +2470,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2459,14 +2480,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2475,14 +2496,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2515,7 +2536,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2565,7 +2586,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2581,7 +2602,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2591,14 +2612,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2614,7 +2635,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2624,14 +2645,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2640,14 +2661,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2664,7 +2685,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2680,7 +2701,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2690,7 +2711,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2713,7 +2734,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2723,14 +2744,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2822,14 +2843,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2855,14 +2876,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2921,11 +2942,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2954,11 +2975,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2970,14 +2991,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2987,14 +3008,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3003,14 +3024,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3020,11 +3041,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -3036,14 +3057,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3119,14 +3140,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>59</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3135,14 +3156,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3152,14 +3173,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3168,14 +3189,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3185,14 +3206,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3201,14 +3222,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3218,14 +3239,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3241,7 +3262,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3258,7 +3279,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3291,7 +3312,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3307,7 +3328,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3317,14 +3338,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>160</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3333,14 +3354,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3350,11 +3371,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>18</v>
@@ -3366,14 +3387,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3383,14 +3404,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3399,14 +3420,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3416,14 +3437,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3432,14 +3453,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3449,14 +3470,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3465,14 +3486,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3482,14 +3503,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3505,7 +3526,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3522,7 +3543,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3538,7 +3559,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3548,11 +3569,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3564,14 +3585,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J